--- a/Data/Goodreads_Comics_Data/Data_Files/Masterdata_ongoing.xlsx
+++ b/Data/Goodreads_Comics_Data/Data_Files/Masterdata_ongoing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/odessialiu/Projects/Modernist_Remediation_ReMedia/Data/Goodreads_Comics_Data/Data_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E217933A-2C94-FB42-98F6-52A6CCB2101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580A39EA-EE88-204A-9775-85AD3743E85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{B7EAC919-767D-1F48-BE74-AEB8146C2F23}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{B7EAC919-767D-1F48-BE74-AEB8146C2F23}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOK_SHEET" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1144">
   <si>
     <t>book_id</t>
   </si>
@@ -2245,6 +2245,1233 @@
   </si>
   <si>
     <t>series_name</t>
+  </si>
+  <si>
+    <t>59251235-einstein</t>
+  </si>
+  <si>
+    <t>Einstein</t>
+  </si>
+  <si>
+    <t>7352725-anne-frank</t>
+  </si>
+  <si>
+    <t>Anne Frank: The Anne Frank House Authorized Graphic Biography</t>
+  </si>
+  <si>
+    <t>16059564-trinity</t>
+  </si>
+  <si>
+    <t>Trinity: A Graphic History of the First Atomic Bomb</t>
+  </si>
+  <si>
+    <t>58484191-accidental-czar</t>
+  </si>
+  <si>
+    <t>Accidental Czar: The Life And Lies Of Vladimir Putin</t>
+  </si>
+  <si>
+    <t>2943009-alan-s-war</t>
+  </si>
+  <si>
+    <t>Alan's War: The Memories Of G.i. Alan Cope</t>
+  </si>
+  <si>
+    <t>7477328-the-beats</t>
+  </si>
+  <si>
+    <t>The Beats: A Graphic History</t>
+  </si>
+  <si>
+    <t>6600626-trotsky</t>
+  </si>
+  <si>
+    <t>Trotsky</t>
+  </si>
+  <si>
+    <t>1765760.J_Edgar_Hoover</t>
+  </si>
+  <si>
+    <t>J. Edgar Hoover: A True History of Violence</t>
+  </si>
+  <si>
+    <t>31080.Malcolm_X</t>
+  </si>
+  <si>
+    <t>Malcolm X: A Graphic Biography</t>
+  </si>
+  <si>
+    <t>54017867-hawking</t>
+  </si>
+  <si>
+    <t>Hawking</t>
+  </si>
+  <si>
+    <t>10991383-grace</t>
+  </si>
+  <si>
+    <t>Grace: The Jeff Buckley Story</t>
+  </si>
+  <si>
+    <t>Monk!: Thelonious, Pannonica, and the Friendship Behind a Musical Revolution</t>
+  </si>
+  <si>
+    <t>34506909-is-this-guy-for-real</t>
+  </si>
+  <si>
+    <t>Is This Guy For Real? The Unbelievable Andy Kaufman</t>
+  </si>
+  <si>
+    <t>15792872-feynman</t>
+  </si>
+  <si>
+    <t>Feynman</t>
+  </si>
+  <si>
+    <t>18465496-andre-the-giant</t>
+  </si>
+  <si>
+    <t>Andre The Giant: Life And Legend</t>
+  </si>
+  <si>
+    <t>58724891-verissimus</t>
+  </si>
+  <si>
+    <t>Verissimus: The Stoic Philosophy Of Marcus Aurelius</t>
+  </si>
+  <si>
+    <t>60316981-now-let-me-fly</t>
+  </si>
+  <si>
+    <t>Now Let Me Fly: A Portrait Of Eugene Bullard</t>
+  </si>
+  <si>
+    <t>37534380-monk</t>
+  </si>
+  <si>
+    <t>17346698-march</t>
+  </si>
+  <si>
+    <t>March: Book One</t>
+  </si>
+  <si>
+    <t>64391839-funny-things</t>
+  </si>
+  <si>
+    <t>Funny Things: A Comic Strip Biography of Charles M. Schulz</t>
+  </si>
+  <si>
+    <t>52211831-they-called-us-enemy</t>
+  </si>
+  <si>
+    <t>They Called Us Enemy: Expanded Edition</t>
+  </si>
+  <si>
+    <t>22487952-march</t>
+  </si>
+  <si>
+    <t>March: Book Two</t>
+  </si>
+  <si>
+    <t>8721708-genius-isolated</t>
+  </si>
+  <si>
+    <t>Genius, Isolated: The Life and Art of Alex Toth</t>
+  </si>
+  <si>
+    <t>29436571-march</t>
+  </si>
+  <si>
+    <t>March: Book Three</t>
+  </si>
+  <si>
+    <t>61363164-evita</t>
+  </si>
+  <si>
+    <t>Evita: The Life And Work Of Eva Perón</t>
+  </si>
+  <si>
+    <t>59551313-golden-boy</t>
+  </si>
+  <si>
+    <t>Golden Boy: Beethoven's Youth</t>
+  </si>
+  <si>
+    <t>61363154-ms-davis</t>
+  </si>
+  <si>
+    <t>Ms. Davis</t>
+  </si>
+  <si>
+    <t>54571511-ana-s-nin---sur-la-mer-des-mensonges</t>
+  </si>
+  <si>
+    <t>Anaïs Nin: A Sea of Lies</t>
+  </si>
+  <si>
+    <t>199451852-delights</t>
+  </si>
+  <si>
+    <t>Delights: A Story of Hieronymus Bosch</t>
+  </si>
+  <si>
+    <t>50022132-i-know-what-i-am</t>
+  </si>
+  <si>
+    <t>I Know What I Am: The Life and Times of Artemisia Gentileschi</t>
+  </si>
+  <si>
+    <t>58558353-life-of-che</t>
+  </si>
+  <si>
+    <t>Life of Che: An Impressionistic Biography</t>
+  </si>
+  <si>
+    <t>38458481-memorabilia</t>
+  </si>
+  <si>
+    <t>Memorabilia</t>
+  </si>
+  <si>
+    <t>30341584-john-stanley</t>
+  </si>
+  <si>
+    <t>John Stanley: Giving Life To Little Lulu</t>
+  </si>
+  <si>
+    <t>61363155-we-re-all-just-fine</t>
+  </si>
+  <si>
+    <t>We're All Just Fine</t>
+  </si>
+  <si>
+    <t>42038564-winter-warrior</t>
+  </si>
+  <si>
+    <t>Winter Warrior: A Vietnam Vet's Anti-War Odyssey</t>
+  </si>
+  <si>
+    <t>34445181-johnny-appleseed</t>
+  </si>
+  <si>
+    <t>Johnny Appleseed</t>
+  </si>
+  <si>
+    <t>32191895-the-ladies-in-waiting</t>
+  </si>
+  <si>
+    <t>The-Ladies-In-Waiting</t>
+  </si>
+  <si>
+    <t>14475543-the-hypo</t>
+  </si>
+  <si>
+    <t>The Hypo: The Melancholic Young Lincoln</t>
+  </si>
+  <si>
+    <t>57322548-man-in-furs</t>
+  </si>
+  <si>
+    <t>Man In Furs</t>
+  </si>
+  <si>
+    <t>17591966-michael-jordan</t>
+  </si>
+  <si>
+    <t>Michael Jordan: Bull On Parade</t>
+  </si>
+  <si>
+    <t>36321846-i-rene-tardi-prisoner-of-war-in-stalag-iib-vol-1</t>
+  </si>
+  <si>
+    <t>I, Rene Tardi, Prisoner Of War In Stalag 2b</t>
+  </si>
+  <si>
+    <t>62919031-all-tomorrow-s-parties</t>
+  </si>
+  <si>
+    <t>All Tomorrow's Parties: The Velvet Underground Story</t>
+  </si>
+  <si>
+    <t>101136053-the-golden-voice</t>
+  </si>
+  <si>
+    <t>The Golden Voice: The Ballad of Cambodian Rock's Lost Queen</t>
+  </si>
+  <si>
+    <t>123208777-through-clouds-of-smoke</t>
+  </si>
+  <si>
+    <t>Through Clouds of Smoke: Freud's Final Days</t>
+  </si>
+  <si>
+    <t>178019129-hedy-lamarr</t>
+  </si>
+  <si>
+    <t>The Incredible Life of Hedy Lamarr</t>
+  </si>
+  <si>
+    <t>61337907-the-twilight-man</t>
+  </si>
+  <si>
+    <t>The Twilight Man: Rod Serling and the Birth of Television</t>
+  </si>
+  <si>
+    <t>61964721-lugosi</t>
+  </si>
+  <si>
+    <t>Lugosi: The Rise and Fall of Hollywood's Dracula</t>
+  </si>
+  <si>
+    <t>37492226-marilyn-s-monsters</t>
+  </si>
+  <si>
+    <t>Marilyn's Monsters</t>
+  </si>
+  <si>
+    <t>60459331-beethoven</t>
+  </si>
+  <si>
+    <t>Beethoven: A Stand for Freedom</t>
+  </si>
+  <si>
+    <t>50891560-for-justice</t>
+  </si>
+  <si>
+    <t>For Justice: The Serge &amp; Beate Klarsfeld Story</t>
+  </si>
+  <si>
+    <t>58437963-makhno</t>
+  </si>
+  <si>
+    <t>Makhno: Ukrainian Freedom Fighter</t>
+  </si>
+  <si>
+    <t>196019251-betrayal-of-the-mind</t>
+  </si>
+  <si>
+    <t>Betrayal of the Mind: The Surreal Life of Unica Zürn</t>
+  </si>
+  <si>
+    <t>60784723-we-are-on-our-own</t>
+  </si>
+  <si>
+    <t>We Are On Our Own: A Memoir</t>
+  </si>
+  <si>
+    <t>10860500-the-adventures-of-herg</t>
+  </si>
+  <si>
+    <t>The Adventures of Hergé</t>
+  </si>
+  <si>
+    <t>56269253-leonard-cohen</t>
+  </si>
+  <si>
+    <t>Leonard Cohen: On A Wire</t>
+  </si>
+  <si>
+    <t>57693671-putin-s-russia</t>
+  </si>
+  <si>
+    <t>Putin's Russia</t>
+  </si>
+  <si>
+    <t>269353.Louis_Riel</t>
+  </si>
+  <si>
+    <t>Louis Riel: A Comic-Strip Biography</t>
+  </si>
+  <si>
+    <t>17287065-woman-rebel</t>
+  </si>
+  <si>
+    <t>Woman Rebel: The Margaret Sanger Story</t>
+  </si>
+  <si>
+    <t>43317483-year-of-the-rabbit</t>
+  </si>
+  <si>
+    <t>Year Of The Rabbit</t>
+  </si>
+  <si>
+    <t>45293279-grateful-dead-origins</t>
+  </si>
+  <si>
+    <t>Grateful Dead Origins</t>
+  </si>
+  <si>
+    <t>59113162-one-bourbon-one-scotch-one-beer</t>
+  </si>
+  <si>
+    <t>One Bourbon, One Scotch, One Beer: Three Tales of John Lee Hooker</t>
+  </si>
+  <si>
+    <t>57234142-blondie</t>
+  </si>
+  <si>
+    <t>Blondie: Against The Odds</t>
+  </si>
+  <si>
+    <t>60321267-sublime</t>
+  </si>
+  <si>
+    <t>Sublime: $5 at the Door</t>
+  </si>
+  <si>
+    <t>57553105-cypress-hill-tres-equis</t>
+  </si>
+  <si>
+    <t>Cypress Hill: Tres Equis</t>
+  </si>
+  <si>
+    <t>56269818-elvis</t>
+  </si>
+  <si>
+    <t>Elvis: The Official Graphic Novel</t>
+  </si>
+  <si>
+    <t>54786126-morrison-hotel</t>
+  </si>
+  <si>
+    <t>Morrison Hotel</t>
+  </si>
+  <si>
+    <t>54587149-chasin-the-bird</t>
+  </si>
+  <si>
+    <t>Chasin' The Bird</t>
+  </si>
+  <si>
+    <t>58326588-freddie-mercury</t>
+  </si>
+  <si>
+    <t>Freddie Mercury: Shadows Illuminated</t>
+  </si>
+  <si>
+    <t>61919434-miles-davis-and-the-search-for-the-sound</t>
+  </si>
+  <si>
+    <t>Miles Davis and the Search for the Sound</t>
+  </si>
+  <si>
+    <t>63234758-growing-up-farley-a-chris-farley-story</t>
+  </si>
+  <si>
+    <t>Growing Up Farley: A Chris Farley Story</t>
+  </si>
+  <si>
+    <t>49930973-clayton</t>
+  </si>
+  <si>
+    <t>Clayton: Godfather of Lower East Side Documentary</t>
+  </si>
+  <si>
+    <t>35297626-the-beatles-story</t>
+  </si>
+  <si>
+    <t>The Beatles Story</t>
+  </si>
+  <si>
+    <t>36373423-all-the-answers</t>
+  </si>
+  <si>
+    <t>All The Answers</t>
+  </si>
+  <si>
+    <t>50804759-bix</t>
+  </si>
+  <si>
+    <t>Bix</t>
+  </si>
+  <si>
+    <t>58853250-butts-in-seats</t>
+  </si>
+  <si>
+    <t>Butts In Seats: The Tony Schiavone Story</t>
+  </si>
+  <si>
+    <t>58532656-the-five-lives-of-hilma-af-klint</t>
+  </si>
+  <si>
+    <t>The Five Lives of Hilma af Klint</t>
+  </si>
+  <si>
+    <t>42202080-the-invisible-empire</t>
+  </si>
+  <si>
+    <t>The Invisible Empire: Madge Oberholtzer And The Unmasking Of The Ku Klux Klan</t>
+  </si>
+  <si>
+    <t>49494921-bowie</t>
+  </si>
+  <si>
+    <t>BOWIE: Stardust, Rayguns, &amp; Moonage Daydreams</t>
+  </si>
+  <si>
+    <t>43811247-renoir</t>
+  </si>
+  <si>
+    <t>Renoir: Father and Son</t>
+  </si>
+  <si>
+    <t>40554540-goya</t>
+  </si>
+  <si>
+    <t>Goya: The Terrible Sublime</t>
+  </si>
+  <si>
+    <t>38471793-h-p-lovecraft</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft: He Who Wrote in the Darkness: A Graphic Novel</t>
+  </si>
+  <si>
+    <t>28943758-pocahontas</t>
+  </si>
+  <si>
+    <t>Pocahontas: Princess of the New World</t>
+  </si>
+  <si>
+    <t>25327517-baddawi</t>
+  </si>
+  <si>
+    <t>Baddawi</t>
+  </si>
+  <si>
+    <t>125078769-toussaint-louverture</t>
+  </si>
+  <si>
+    <t>Toussaint Louverture: The Story of the Only Successful Slave Revolt in History</t>
+  </si>
+  <si>
+    <t>16284969-masks-of-anarchy</t>
+  </si>
+  <si>
+    <t>Masks Of Anarchy: The History Of A Radical Poem, From Percy Shelley To The Triangle Factory Fire</t>
+  </si>
+  <si>
+    <t>43478977-eugene-v-debs</t>
+  </si>
+  <si>
+    <t>Eugene V. Debs: A Graphic Biography</t>
+  </si>
+  <si>
+    <t>38315848-prisoner-155</t>
+  </si>
+  <si>
+    <t>Prisoner 155: Simon Radowitzky</t>
+  </si>
+  <si>
+    <t>27134366-len-a-lawyer-in-history</t>
+  </si>
+  <si>
+    <t>Len, A Lawyer In History: A Graphic Biography of Radical Attorney Leonard Weinglass</t>
+  </si>
+  <si>
+    <t>57006119-prophet-against-slavery</t>
+  </si>
+  <si>
+    <t>Prophet Against Slavery: Benjamin Lay: A Graphic Novel</t>
+  </si>
+  <si>
+    <t>13237047-leon-trotsky</t>
+  </si>
+  <si>
+    <t>Leon Trotsky: An Illustrated Introduction</t>
+  </si>
+  <si>
+    <t>182093252-freedom-shall-prevail</t>
+  </si>
+  <si>
+    <t>Freedom Shall Prevail: The Struggle of Abdullah Ocalan and the Kurdish People</t>
+  </si>
+  <si>
+    <t>125877100-erdo-an</t>
+  </si>
+  <si>
+    <t>Erdogan: A Graphic Biography: The Rise of Turkey's Modern Autocrat</t>
+  </si>
+  <si>
+    <t>28818642-the-case-of-alan-turing</t>
+  </si>
+  <si>
+    <t>The Case of Alan Turing: The Extraordinary and Tragic Story of the Legendary Codebreaker</t>
+  </si>
+  <si>
+    <t>32783833-hostage</t>
+  </si>
+  <si>
+    <t>Hostage</t>
+  </si>
+  <si>
+    <t>31944933-audubon-on-the-wings-of-the-world</t>
+  </si>
+  <si>
+    <t>Audubon, On The Wings Of The World</t>
+  </si>
+  <si>
+    <t>43613453-darwin</t>
+  </si>
+  <si>
+    <t>Darwin: An Exceptional Voyage</t>
+  </si>
+  <si>
+    <t>Tangier in the Rain</t>
+  </si>
+  <si>
+    <t>50653505-charlotte-salomon</t>
+  </si>
+  <si>
+    <t>Charlotte Salomon: Colors Of The Soul</t>
+  </si>
+  <si>
+    <t>27135263-the-incantations-of-daniel-johnston</t>
+  </si>
+  <si>
+    <t>The Incantations Of Daniel Johnston</t>
+  </si>
+  <si>
+    <t>40186431-weegee</t>
+  </si>
+  <si>
+    <t>Weegee: Serial Photographer</t>
+  </si>
+  <si>
+    <t>31934542-rise-of-the-dungeon-master</t>
+  </si>
+  <si>
+    <t>Rise Of The Dungeon Master: Gary Gygax And The Creation Of D&amp;D</t>
+  </si>
+  <si>
+    <t>60680224-tokyo-rose---zero-hour</t>
+  </si>
+  <si>
+    <t>Tokyo Rose - Zero Hour</t>
+  </si>
+  <si>
+    <t>27395094-ginger-goodwin</t>
+  </si>
+  <si>
+    <t>Ginger Goodwin: A Worker's Friend</t>
+  </si>
+  <si>
+    <t>122649245-golden-boys</t>
+  </si>
+  <si>
+    <t>Golden Boys: The Winnipeg Falcons Of 1920</t>
+  </si>
+  <si>
+    <t>25247938-the-fifth-beatle</t>
+  </si>
+  <si>
+    <t>The Fifth Beatle: The Brian Epstein Story Expanded Edition</t>
+  </si>
+  <si>
+    <t>61311622-guardian-of-fukushima</t>
+  </si>
+  <si>
+    <t>Guardian of Fukushima</t>
+  </si>
+  <si>
+    <t>54818054-hokusai</t>
+  </si>
+  <si>
+    <t>Hokusai: A Graphic Biography</t>
+  </si>
+  <si>
+    <t>16678351-superzelda</t>
+  </si>
+  <si>
+    <t>Superzelda</t>
+  </si>
+  <si>
+    <t>20609980-kurt-cobain</t>
+  </si>
+  <si>
+    <t>Kurt Cobain: When I Was an Alien</t>
+  </si>
+  <si>
+    <t>50802077-regards-ditko</t>
+  </si>
+  <si>
+    <t>Regards, Ditko: An exploration into the mind of Steve Ditko</t>
+  </si>
+  <si>
+    <t>34774305-egon-schiele</t>
+  </si>
+  <si>
+    <t>Egon Schiele: His Life and Death</t>
+  </si>
+  <si>
+    <t>57716146-a-revolution-in-three-acts</t>
+  </si>
+  <si>
+    <t>A Revolution In Three Acts: The Radical Vaudeville Of Bert Williams, Eva Tanguay, And Julian Eltinge</t>
+  </si>
+  <si>
+    <t>63065575-george-s-run</t>
+  </si>
+  <si>
+    <t>George's Run: A Writer's Journey through the Twilight Zone</t>
+  </si>
+  <si>
+    <t>57563687-emma-dreams-of-stars</t>
+  </si>
+  <si>
+    <t>Emma Dreams Of Stars: Inside The Gourmet Guide</t>
+  </si>
+  <si>
+    <t>58437897-petrograd</t>
+  </si>
+  <si>
+    <t>Petrograd</t>
+  </si>
+  <si>
+    <t>53022293-topp</t>
+  </si>
+  <si>
+    <t>Topp: Promoter Gary Topp Brought Us The World</t>
+  </si>
+  <si>
+    <t>61825623-hendrix</t>
+  </si>
+  <si>
+    <t>Hendrix: Electric Requiem</t>
+  </si>
+  <si>
+    <t>57455011-artemisia</t>
+  </si>
+  <si>
+    <t>Artemisia</t>
+  </si>
+  <si>
+    <t>55554047-billie-holiday</t>
+  </si>
+  <si>
+    <t>Billie Holiday: The Graphic Novel: Women in Jazz</t>
+  </si>
+  <si>
+    <t>130006691-hockney</t>
+  </si>
+  <si>
+    <t>Hockney: A Graphic Life</t>
+  </si>
+  <si>
+    <t>182761382-andy-warhol</t>
+  </si>
+  <si>
+    <t>Andy Warhol: A Graphic Biography</t>
+  </si>
+  <si>
+    <t>182761906-quentin-tarantino</t>
+  </si>
+  <si>
+    <t>Quentin Tarantino: A Graphic Biography</t>
+  </si>
+  <si>
+    <t>61047526-tangier-in-the-rain</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>Drawn &amp; Quarterly</t>
+  </si>
+  <si>
+    <t>Flying Eye Books Ltd.</t>
+  </si>
+  <si>
+    <t>Nobrow</t>
+  </si>
+  <si>
+    <t>Europe Comis</t>
+  </si>
+  <si>
+    <t>Ponent Mon/Fanfare</t>
+  </si>
+  <si>
+    <t>Two Dollar Radio</t>
+  </si>
+  <si>
+    <t>Conundrum Press</t>
+  </si>
+  <si>
+    <t>Hachette Book Group</t>
+  </si>
+  <si>
+    <t>Tuttle Publishing</t>
+  </si>
+  <si>
+    <t>Between The Lines</t>
+  </si>
+  <si>
+    <t>Amazon Digital Services LLC</t>
+  </si>
+  <si>
+    <t>Dark Horse Comics</t>
+  </si>
+  <si>
+    <t>MacMillan Publishers</t>
+  </si>
+  <si>
+    <t>TokyoPop</t>
+  </si>
+  <si>
+    <t>Laurence King Publishing</t>
+  </si>
+  <si>
+    <t>One Peace Books</t>
+  </si>
+  <si>
+    <t>n/A (Independently Published)</t>
+  </si>
+  <si>
+    <t>Firefly Books</t>
+  </si>
+  <si>
+    <t>Columbia University Press</t>
+  </si>
+  <si>
+    <t>Rutgers University Press</t>
+  </si>
+  <si>
+    <t>Kodansha USA</t>
+  </si>
+  <si>
+    <t>Oni Press</t>
+  </si>
+  <si>
+    <t>Ablaze</t>
+  </si>
+  <si>
+    <t>Beehive Books</t>
+  </si>
+  <si>
+    <t>Fantoons</t>
+  </si>
+  <si>
+    <t>Quarto</t>
+  </si>
+  <si>
+    <t>Just World Books</t>
+  </si>
+  <si>
+    <t>Verso Books</t>
+  </si>
+  <si>
+    <t>Ak Press</t>
+  </si>
+  <si>
+    <t>Beacon Press</t>
+  </si>
+  <si>
+    <t>Haymarket Books</t>
+  </si>
+  <si>
+    <t>PM Press</t>
+  </si>
+  <si>
+    <t>Arsenal Pulp Press</t>
+  </si>
+  <si>
+    <t>Z2 Comics</t>
+  </si>
+  <si>
+    <t>Permuted Press</t>
+  </si>
+  <si>
+    <t>Rebellion</t>
+  </si>
+  <si>
+    <t>Gallery 13</t>
+  </si>
+  <si>
+    <t>Source Point Press</t>
+  </si>
+  <si>
+    <t>David Zwirner Books</t>
+  </si>
+  <si>
+    <t>Insight Comics</t>
+  </si>
+  <si>
+    <t>Pegasus Books</t>
+  </si>
+  <si>
+    <t>Humanoids, Inc.</t>
+  </si>
+  <si>
+    <t>Fantagraphics Books</t>
+  </si>
+  <si>
+    <t>IDW Publishing</t>
+  </si>
+  <si>
+    <t>Macmillan Publishers</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +3540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2336,6 +3563,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2650,10 +3886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53A8A5E-FE1D-9A42-8492-85B8DD60DFBA}">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5437,13 +6673,13 @@
       <c r="A108" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="12">
         <v>9781611801354</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="13" t="s">
         <v>357</v>
       </c>
       <c r="F108">
@@ -5451,6 +6687,2447 @@
       </c>
       <c r="G108" t="s">
         <v>358</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B109" s="12">
+        <v>9781626728769</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="F109" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B110" s="12">
+        <v>9780809026852</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="F110" s="13">
+        <v>2010</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B111" s="12">
+        <v>9780809093557</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="F111" s="13">
+        <v>2013</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B112" s="12">
+        <v>9781250760753</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="F112" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B113" s="12">
+        <v>9781596430969</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="F113" s="13">
+        <v>2008</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B114" s="12">
+        <v>9780809016495</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="F114" s="13">
+        <v>2010</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B115" s="12">
+        <v>9780809095087</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="F115" s="13">
+        <v>2009</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B116" s="12">
+        <v>9780809095032</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="F116" s="13">
+        <v>2008</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B117" s="12">
+        <v>9780809095049</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="F117" s="13">
+        <v>2006</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B118" s="12">
+        <v>9781250777942</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="F118" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B119" s="12">
+        <v>9781596432871</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="F119" s="13">
+        <v>2019</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B120" s="12">
+        <v>9781250224880</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="F120" s="13">
+        <v>2018</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B121" s="12">
+        <v>9781626723160</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="F121" s="13">
+        <v>2019</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B122" s="12">
+        <v>9781596438279</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="F122" s="13">
+        <v>2011</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B123" s="12">
+        <v>9781596438514</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="F123" s="13">
+        <v>2014</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="B124" s="12">
+        <v>9781250270955</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="F124" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="B125" s="12">
+        <v>9781626728523</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="F125" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B126" s="12">
+        <v>9781603093002</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="F126" s="13">
+        <v>2013</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="B127" s="12">
+        <v>9781603095266</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="F127" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B128" s="12">
+        <v>9781603094702</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="F128" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="B129" s="12">
+        <v>9781603094009</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="F129" s="13">
+        <v>2015</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B130" s="12">
+        <v>9781600108280</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F130" s="13">
+        <v>2011</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="B131" s="12">
+        <v>9781603094023</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="F131" s="13">
+        <v>2016</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B132" s="12">
+        <v>9781683966913</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F132" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B133" s="12">
+        <v>9781683965510</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="F133" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B134" s="12">
+        <v>9781683965695</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="F134" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B135" s="12">
+        <v>9782203161917</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="F135" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B136" s="12">
+        <v>9781683969525</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="F136" s="13">
+        <v>2024</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B137" s="12">
+        <v>9781683962113</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="F137" s="13">
+        <v>2019</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B138" s="12">
+        <v>9781683965220</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="F138" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B139" s="12">
+        <v>9781683961482</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="F139" s="13">
+        <v>2018</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B140" s="12">
+        <v>9781606999905</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="F140" s="13">
+        <v>2017</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B141" s="12">
+        <v>9781683965800</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="F141" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B142" s="12">
+        <v>9781683962137</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="F142" s="13">
+        <v>2019</v>
+      </c>
+      <c r="G142" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B143" s="12">
+        <v>9781683960447</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="F143" s="13">
+        <v>2017</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B144" s="12">
+        <v>9781683960126</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="F144" s="13">
+        <v>2017</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B145" s="12">
+        <v>9781606996195</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="F145" s="13">
+        <v>2012</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B146" s="12">
+        <v>9781683964803</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="F146" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B147" s="12">
+        <v>9781606997116</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="F147" s="13">
+        <v>2015</v>
+      </c>
+      <c r="G147" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B148" s="12">
+        <v>9781683961086</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="F148" s="13">
+        <v>2018</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B149" s="12">
+        <v>9781643375632</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="F149" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B150" s="12">
+        <v>9781643378732</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="F150" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G150" s="13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B151" s="12">
+        <v>9781643376011</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>820</v>
+      </c>
+      <c r="F151" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B152" s="12">
+        <v>9781643377520</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="F152" s="13">
+        <v>2019</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B153" s="12">
+        <v>9781643378695</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="F153" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G153" s="13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B154" s="12">
+        <v>9781643375793</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="F154" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B155" s="12">
+        <v>9781594655357</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="F155" s="13">
+        <v>2018</v>
+      </c>
+      <c r="G155" s="13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B156" s="12">
+        <v>9781643379845</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="F156" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B157" s="12">
+        <v>9781643375243</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="F157" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B158" s="12">
+        <v>9781643379692</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="F158" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G158" s="13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B159" s="12">
+        <v>9781643375953</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="F159" s="13">
+        <v>2024</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B160" s="12">
+        <v>9781770466357</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="F160" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G160" s="13" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B161" s="12">
+        <v>9781770460591</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="F161" s="13">
+        <v>2011</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B162" s="12">
+        <v>9781770464896</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="F162">
+        <v>2021</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B163" s="12">
+        <v>9781770465046</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="F163">
+        <v>2022</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B164" s="12">
+        <v>9781894937894</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="F164">
+        <v>2003</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B165" s="12">
+        <v>9781770461260</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="F165">
+        <v>2015</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B166" s="12">
+        <v>9781770463769</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="F166">
+        <v>2020</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B167" s="12">
+        <v>9781940878300</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="F167" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B168" s="12">
+        <v>9781940878614</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="D168" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="F168" s="13">
+        <v>2024</v>
+      </c>
+      <c r="G168" s="13" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B169" s="12">
+        <v>9781940878768</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="F169" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B170" s="12">
+        <v>9781954928046</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="F170" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G170" s="13" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B171" s="12">
+        <v>9781940878669</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="F171" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G171" s="13" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B172" s="12">
+        <v>9781940878652</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="F172" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G172" s="13" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B173" s="12">
+        <v>9781940878362</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="F173" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G173" s="13" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B174" s="12">
+        <v>9781940878386</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="F174" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G174" s="13" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B175" s="12">
+        <v>9781940878867</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="D175" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="F175" s="13">
+        <v>2024</v>
+      </c>
+      <c r="G175" s="13" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B176" s="12">
+        <v>9798886560428</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="F176" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G176" s="13" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B177" s="12">
+        <v>9798886560381</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="D177" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="F177" s="13">
+        <v>2024</v>
+      </c>
+      <c r="G177" s="13" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B178" s="12">
+        <v>9781682618981</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="F178" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G178" s="13" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B179" s="12">
+        <v>9781781086179</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="D179" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="F179" s="13">
+        <v>2018</v>
+      </c>
+      <c r="G179" s="13" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B180" s="12">
+        <v>9781501166433</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="D180" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="F180" s="13">
+        <v>2018</v>
+      </c>
+      <c r="G180" s="13" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B181" s="12">
+        <v>9781501190780</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="F181" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G181" s="13" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B182" s="12">
+        <v>9781954412323</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="F182" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G182" s="13" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B183" s="12">
+        <v>9781644230695</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="F183" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G183" s="13" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B184" s="12">
+        <v>9781683834472</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="F184" s="13">
+        <v>2019</v>
+      </c>
+      <c r="G184" s="13" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B185" s="12">
+        <v>9781683834489</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="D185" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="F185" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G185" s="13" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B186" s="12">
+        <v>9781643131962</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="F186" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G186" s="13" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B187" s="12">
+        <v>9781643130163</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="D187" s="13" t="s">
+        <v>892</v>
+      </c>
+      <c r="F187" s="13">
+        <v>2019</v>
+      </c>
+      <c r="G187" s="13" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B188" s="12">
+        <v>9781681778556</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="D188" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="F188" s="13">
+        <v>2018</v>
+      </c>
+      <c r="G188" s="13" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B189" s="12">
+        <v>9781681772172</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="D189" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="F189" s="13">
+        <v>2016</v>
+      </c>
+      <c r="G189" s="13" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B190" s="12">
+        <v>9781935982494</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="F190">
+        <v>2015</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B191" s="12">
+        <v>9781788737906</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="D191" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="F191">
+        <v>2023</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B192" s="12">
+        <v>9781781680988</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="D192" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="F192">
+        <v>2013</v>
+      </c>
+      <c r="G192" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B193" s="12">
+        <v>9781786636874</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="D193" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="F193">
+        <v>2019</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B194" s="12">
+        <v>9781849353021</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="F194">
+        <v>2018</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B195" s="12">
+        <v>9781849352406</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="D195" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="F195">
+        <v>2016</v>
+      </c>
+      <c r="G195" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B196" s="12">
+        <v>9780807081792</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>909</v>
+      </c>
+      <c r="D196" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="F196">
+        <v>2021</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B197" s="12">
+        <v>9781608461868</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="D197" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="F197">
+        <v>2013</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B198" s="12">
+        <v>9798887440347</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>913</v>
+      </c>
+      <c r="D198" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="F198">
+        <v>2024</v>
+      </c>
+      <c r="G198" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B199" s="12">
+        <v>9781551529219</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="D199" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="F199">
+        <v>2023</v>
+      </c>
+      <c r="G199" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B200" s="12">
+        <v>9781551526508</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="F200">
+        <v>2016</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B201" s="12">
+        <v>9781770462793</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="D201" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="F201" s="15">
+        <v>2017</v>
+      </c>
+      <c r="G201" s="15" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B202" s="12">
+        <v>9781910620151</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>921</v>
+      </c>
+      <c r="D202" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="F202" s="15">
+        <v>2017</v>
+      </c>
+      <c r="G202" s="15" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B203" s="12">
+        <v>9781910620502</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="D203" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="F203" s="15">
+        <v>2019</v>
+      </c>
+      <c r="G203" s="15" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B204" s="14">
+        <v>9791032813171</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="D204" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="F204" s="15">
+        <v>2022</v>
+      </c>
+      <c r="G204" s="15" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B205" s="12">
+        <v>9781912097418</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="D205" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="F205" s="15">
+        <v>2020</v>
+      </c>
+      <c r="G205" s="15" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B206" s="12">
+        <v>9781937512453</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D206" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="F206" s="15">
+        <v>2016</v>
+      </c>
+      <c r="G206" s="15" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B207" s="12">
+        <v>9781772620238</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="D207" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="F207" s="15">
+        <v>2018</v>
+      </c>
+      <c r="G207" s="15" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B208" s="12">
+        <v>9781568585598</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="D208" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="F208" s="15">
+        <v>2017</v>
+      </c>
+      <c r="G208" s="15" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B209" s="12">
+        <v>9784805316955</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="D209" s="13" t="s">
+        <v>935</v>
+      </c>
+      <c r="F209" s="15">
+        <v>2022</v>
+      </c>
+      <c r="G209" s="15" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B210" s="12">
+        <v>9781771132268</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="D210" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="F210" s="15">
+        <v>2016</v>
+      </c>
+      <c r="G210" s="15" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B211" s="12">
+        <v>9781987834284</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="D211" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="F211" s="15">
+        <v>2021</v>
+      </c>
+      <c r="G211" s="15" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B212" s="12">
+        <v>9781616552565</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="D212" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="F212" s="15">
+        <v>2016</v>
+      </c>
+      <c r="G212" s="15" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B213" s="12">
+        <v>9781596438279</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="D213" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="F213" s="15">
+        <v>2013</v>
+      </c>
+      <c r="G213" s="15" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B214" s="12">
+        <v>9781427871367</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="D214" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="F214" s="15">
+        <v>2023</v>
+      </c>
+      <c r="G214" s="15" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B215" s="12">
+        <v>9781786278937</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="D215" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="F215" s="15">
+        <v>2021</v>
+      </c>
+      <c r="G215" s="15" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B216" s="12">
+        <v>9781935548270</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="D216" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="F216" s="15">
+        <v>2013</v>
+      </c>
+      <c r="G216" s="15" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B217" s="12">
+        <v>9781935548515</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="D217" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="F217" s="15">
+        <v>2014</v>
+      </c>
+      <c r="G217" s="15" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B218" s="12">
+        <v>9781073418466</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>950</v>
+      </c>
+      <c r="D218" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F218" s="15">
+        <v>2019</v>
+      </c>
+      <c r="G218" s="15" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B219" s="12">
+        <v>9781770859401</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>952</v>
+      </c>
+      <c r="D219" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="F219" s="15">
+        <v>2017</v>
+      </c>
+      <c r="G219" s="15" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B220" s="12">
+        <v>9780231191821</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="D220" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="F220" s="15">
+        <v>2021</v>
+      </c>
+      <c r="G220" s="15" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B221" s="12">
+        <v>9781978834217</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>956</v>
+      </c>
+      <c r="D221" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="F221" s="15">
+        <v>2023</v>
+      </c>
+      <c r="G221" s="15" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B222" s="12">
+        <v>9781647290573</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="D222" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="F222" s="15">
+        <v>2021</v>
+      </c>
+      <c r="G222" s="15" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B223" s="12">
+        <v>9781637150153</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>960</v>
+      </c>
+      <c r="D223" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="F223" s="15">
+        <v>2022</v>
+      </c>
+      <c r="G223" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B224" s="12">
+        <v>9781772620320</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="F224" s="15">
+        <v>2020</v>
+      </c>
+      <c r="G224" s="15" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B225" s="12">
+        <v>9781950912650</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="D225" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="F225" s="15">
+        <v>2022</v>
+      </c>
+      <c r="G225" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B226" s="12">
+        <v>9781948886116</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="D226" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="F226" s="15">
+        <v>2021</v>
+      </c>
+      <c r="G226" s="15" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B227" s="12">
+        <v>9781970047134</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="D227" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="F227" s="15">
+        <v>2021</v>
+      </c>
+      <c r="G227" s="15" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B228" s="12">
+        <v>9780711288423</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="D228" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="F228" s="15">
+        <v>2023</v>
+      </c>
+      <c r="G228" s="15" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B229" s="12">
+        <v>9780711290785</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="D229" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="F229" s="15">
+        <v>2024</v>
+      </c>
+      <c r="G229" s="15" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B230" s="12">
+        <v>9780711290761</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="D230" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="E230" s="13"/>
+      <c r="F230" s="16">
+        <v>2024</v>
+      </c>
+      <c r="G230" s="15" t="s">
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -7469,7 +11146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A6D418-5C08-D14A-9281-F2F400582D8E}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>

--- a/Data/Goodreads_Comics_Data/Data_Files/Masterdata_ongoing.xlsx
+++ b/Data/Goodreads_Comics_Data/Data_Files/Masterdata_ongoing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/odessialiu/Projects/Modernist_Remediation_ReMedia/Data/Goodreads_Comics_Data/Data_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580A39EA-EE88-204A-9775-85AD3743E85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883D15A4-6602-204B-BD94-1062A32A7BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{B7EAC919-767D-1F48-BE74-AEB8146C2F23}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="1143">
   <si>
     <t>book_id</t>
   </si>
@@ -3334,9 +3334,6 @@
   </si>
   <si>
     <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
   </si>
   <si>
     <t>Drawn &amp; Quarterly</t>
@@ -3540,7 +3537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3563,15 +3560,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3590,9 +3578,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3630,7 +3618,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3736,7 +3724,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3878,7 +3866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3886,10 +3874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53A8A5E-FE1D-9A42-8492-85B8DD60DFBA}">
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6673,13 +6661,13 @@
       <c r="A108" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B108" s="12">
+      <c r="B108" s="4">
         <v>9781611801354</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D108" s="13" t="s">
+      <c r="D108" t="s">
         <v>357</v>
       </c>
       <c r="F108">
@@ -6693,2099 +6681,2099 @@
       <c r="A109" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="B109" s="12">
+      <c r="B109" s="4">
         <v>9781626728769</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="D109" t="s">
         <v>736</v>
       </c>
-      <c r="F109" s="13">
+      <c r="F109">
         <v>2022</v>
       </c>
-      <c r="G109" s="13" t="s">
-        <v>1111</v>
+      <c r="G109" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="B110" s="12">
+      <c r="B110" s="4">
         <v>9780809026852</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="D110" s="13" t="s">
+      <c r="D110" t="s">
         <v>738</v>
       </c>
-      <c r="F110" s="13">
+      <c r="F110">
         <v>2010</v>
       </c>
-      <c r="G110" s="13" t="s">
-        <v>1111</v>
+      <c r="G110" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="B111" s="12">
+      <c r="B111" s="4">
         <v>9780809093557</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D111" t="s">
         <v>740</v>
       </c>
-      <c r="F111" s="13">
+      <c r="F111">
         <v>2013</v>
       </c>
-      <c r="G111" s="13" t="s">
-        <v>1111</v>
+      <c r="G111" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B112" s="12">
+      <c r="B112" s="4">
         <v>9781250760753</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="D112" s="13" t="s">
+      <c r="D112" t="s">
         <v>742</v>
       </c>
-      <c r="F112" s="13">
+      <c r="F112">
         <v>2022</v>
       </c>
-      <c r="G112" s="13" t="s">
-        <v>1111</v>
+      <c r="G112" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="B113" s="12">
+      <c r="B113" s="4">
         <v>9781596430969</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="D113" s="13" t="s">
+      <c r="D113" t="s">
         <v>744</v>
       </c>
-      <c r="F113" s="13">
+      <c r="F113">
         <v>2008</v>
       </c>
-      <c r="G113" s="13" t="s">
-        <v>1111</v>
+      <c r="G113" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="B114" s="12">
+      <c r="B114" s="4">
         <v>9780809016495</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="D114" s="13" t="s">
+      <c r="D114" t="s">
         <v>746</v>
       </c>
-      <c r="F114" s="13">
+      <c r="F114">
         <v>2010</v>
       </c>
-      <c r="G114" s="13" t="s">
-        <v>1111</v>
+      <c r="G114" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="B115" s="12">
+      <c r="B115" s="4">
         <v>9780809095087</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="D115" t="s">
         <v>748</v>
       </c>
-      <c r="F115" s="13">
+      <c r="F115">
         <v>2009</v>
       </c>
-      <c r="G115" s="13" t="s">
-        <v>1111</v>
+      <c r="G115" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="B116" s="12">
+      <c r="B116" s="4">
         <v>9780809095032</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="D116" s="13" t="s">
+      <c r="D116" t="s">
         <v>750</v>
       </c>
-      <c r="F116" s="13">
+      <c r="F116">
         <v>2008</v>
       </c>
-      <c r="G116" s="13" t="s">
-        <v>1111</v>
+      <c r="G116" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="B117" s="12">
+      <c r="B117" s="4">
         <v>9780809095049</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="D117" s="13" t="s">
+      <c r="D117" t="s">
         <v>752</v>
       </c>
-      <c r="F117" s="13">
+      <c r="F117">
         <v>2006</v>
       </c>
-      <c r="G117" s="13" t="s">
-        <v>1111</v>
+      <c r="G117" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="B118" s="12">
+      <c r="B118" s="4">
         <v>9781250777942</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="D118" s="13" t="s">
+      <c r="D118" t="s">
         <v>754</v>
       </c>
-      <c r="F118" s="13">
+      <c r="F118">
         <v>2021</v>
       </c>
-      <c r="G118" s="13" t="s">
-        <v>1111</v>
+      <c r="G118" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="B119" s="12">
+      <c r="B119" s="4">
         <v>9781596432871</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D119" s="13" t="s">
+      <c r="D119" t="s">
         <v>756</v>
       </c>
-      <c r="F119" s="13">
+      <c r="F119">
         <v>2019</v>
       </c>
-      <c r="G119" s="13" t="s">
-        <v>1111</v>
+      <c r="G119" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="B120" s="12">
+      <c r="B120" s="4">
         <v>9781250224880</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C120" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="D120" s="13" t="s">
+      <c r="D120" t="s">
         <v>757</v>
       </c>
-      <c r="F120" s="13">
+      <c r="F120">
         <v>2018</v>
       </c>
-      <c r="G120" s="13" t="s">
-        <v>1111</v>
+      <c r="G120" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="B121" s="12">
+      <c r="B121" s="4">
         <v>9781626723160</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="D121" s="13" t="s">
+      <c r="D121" t="s">
         <v>759</v>
       </c>
-      <c r="F121" s="13">
+      <c r="F121">
         <v>2019</v>
       </c>
-      <c r="G121" s="13" t="s">
-        <v>1111</v>
+      <c r="G121" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="B122" s="12">
+      <c r="B122" s="4">
         <v>9781596438279</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C122" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="D122" s="13" t="s">
+      <c r="D122" t="s">
         <v>761</v>
       </c>
-      <c r="F122" s="13">
+      <c r="F122">
         <v>2011</v>
       </c>
-      <c r="G122" s="13" t="s">
-        <v>1111</v>
+      <c r="G122" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="B123" s="12">
+      <c r="B123" s="4">
         <v>9781596438514</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C123" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="D123" s="13" t="s">
+      <c r="D123" t="s">
         <v>763</v>
       </c>
-      <c r="F123" s="13">
+      <c r="F123">
         <v>2014</v>
       </c>
-      <c r="G123" s="13" t="s">
-        <v>1111</v>
+      <c r="G123" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="B124" s="12">
+      <c r="B124" s="4">
         <v>9781250270955</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="D124" s="13" t="s">
+      <c r="D124" t="s">
         <v>765</v>
       </c>
-      <c r="F124" s="13">
+      <c r="F124">
         <v>2022</v>
       </c>
-      <c r="G124" s="13" t="s">
-        <v>1143</v>
+      <c r="G124" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="B125" s="12">
+      <c r="B125" s="4">
         <v>9781626728523</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C125" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="D125" s="13" t="s">
+      <c r="D125" t="s">
         <v>767</v>
       </c>
-      <c r="F125" s="13">
+      <c r="F125">
         <v>2023</v>
       </c>
-      <c r="G125" s="13" t="s">
-        <v>1111</v>
+      <c r="G125" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="B126" s="12">
+      <c r="B126" s="4">
         <v>9781603093002</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C126" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="D126" t="s">
         <v>770</v>
       </c>
-      <c r="F126" s="13">
+      <c r="F126">
         <v>2013</v>
       </c>
-      <c r="G126" s="13" t="s">
-        <v>1142</v>
+      <c r="G126" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="B127" s="12">
+      <c r="B127" s="4">
         <v>9781603095266</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C127" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="D127" s="13" t="s">
+      <c r="D127" t="s">
         <v>772</v>
       </c>
-      <c r="F127" s="13">
+      <c r="F127">
         <v>2023</v>
       </c>
-      <c r="G127" s="13" t="s">
-        <v>1142</v>
+      <c r="G127" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="B128" s="12">
+      <c r="B128" s="4">
         <v>9781603094702</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C128" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D128" s="13" t="s">
+      <c r="D128" t="s">
         <v>774</v>
       </c>
-      <c r="F128" s="13">
+      <c r="F128">
         <v>2020</v>
       </c>
-      <c r="G128" s="13" t="s">
-        <v>1142</v>
+      <c r="G128" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="B129" s="12">
+      <c r="B129" s="4">
         <v>9781603094009</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C129" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="D129" s="13" t="s">
+      <c r="D129" t="s">
         <v>776</v>
       </c>
-      <c r="F129" s="13">
+      <c r="F129">
         <v>2015</v>
       </c>
-      <c r="G129" s="13" t="s">
-        <v>1142</v>
+      <c r="G129" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="B130" s="12">
+      <c r="B130" s="4">
         <v>9781600108280</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="C130" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="D130" t="s">
         <v>778</v>
       </c>
-      <c r="F130" s="13">
+      <c r="F130">
         <v>2011</v>
       </c>
-      <c r="G130" s="13" t="s">
-        <v>1142</v>
+      <c r="G130" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="B131" s="12">
+      <c r="B131" s="4">
         <v>9781603094023</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C131" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="D131" s="13" t="s">
+      <c r="D131" t="s">
         <v>780</v>
       </c>
-      <c r="F131" s="13">
+      <c r="F131">
         <v>2016</v>
       </c>
-      <c r="G131" s="13" t="s">
-        <v>1142</v>
+      <c r="G131" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="B132" s="12">
+      <c r="B132" s="4">
         <v>9781683966913</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C132" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="D132" t="s">
         <v>782</v>
       </c>
-      <c r="F132" s="13">
+      <c r="F132">
         <v>2023</v>
       </c>
-      <c r="G132" s="13" t="s">
-        <v>1141</v>
+      <c r="G132" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="B133" s="12">
+      <c r="B133" s="4">
         <v>9781683965510</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="C133" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="D133" s="13" t="s">
+      <c r="D133" t="s">
         <v>784</v>
       </c>
-      <c r="F133" s="13">
+      <c r="F133">
         <v>2022</v>
       </c>
-      <c r="G133" s="13" t="s">
-        <v>1141</v>
+      <c r="G133" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="B134" s="12">
+      <c r="B134" s="4">
         <v>9781683965695</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C134" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="D134" s="13" t="s">
+      <c r="D134" t="s">
         <v>786</v>
       </c>
-      <c r="F134" s="13">
+      <c r="F134">
         <v>2023</v>
       </c>
-      <c r="G134" s="13" t="s">
-        <v>1141</v>
+      <c r="G134" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="B135" s="12">
+      <c r="B135" s="4">
         <v>9782203161917</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C135" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D135" s="13" t="s">
+      <c r="D135" t="s">
         <v>788</v>
       </c>
-      <c r="F135" s="13">
+      <c r="F135">
         <v>2023</v>
       </c>
-      <c r="G135" s="13" t="s">
-        <v>1141</v>
+      <c r="G135" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="B136" s="12">
+      <c r="B136" s="4">
         <v>9781683969525</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C136" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="D136" s="13" t="s">
+      <c r="D136" t="s">
         <v>790</v>
       </c>
-      <c r="F136" s="13">
+      <c r="F136">
         <v>2024</v>
       </c>
-      <c r="G136" s="13" t="s">
-        <v>1141</v>
+      <c r="G136" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="B137" s="12">
+      <c r="B137" s="4">
         <v>9781683962113</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C137" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="D137" s="13" t="s">
+      <c r="D137" t="s">
         <v>792</v>
       </c>
-      <c r="F137" s="13">
+      <c r="F137">
         <v>2019</v>
       </c>
-      <c r="G137" s="13" t="s">
-        <v>1141</v>
+      <c r="G137" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="B138" s="12">
+      <c r="B138" s="4">
         <v>9781683965220</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C138" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="D138" s="13" t="s">
+      <c r="D138" t="s">
         <v>794</v>
       </c>
-      <c r="F138" s="13">
+      <c r="F138">
         <v>2022</v>
       </c>
-      <c r="G138" s="13" t="s">
-        <v>1141</v>
+      <c r="G138" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="B139" s="12">
+      <c r="B139" s="4">
         <v>9781683961482</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C139" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="D139" s="13" t="s">
+      <c r="D139" t="s">
         <v>796</v>
       </c>
-      <c r="F139" s="13">
+      <c r="F139">
         <v>2018</v>
       </c>
-      <c r="G139" s="13" t="s">
-        <v>1141</v>
+      <c r="G139" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="B140" s="12">
+      <c r="B140" s="4">
         <v>9781606999905</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C140" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="D140" s="13" t="s">
+      <c r="D140" t="s">
         <v>798</v>
       </c>
-      <c r="F140" s="13">
+      <c r="F140">
         <v>2017</v>
       </c>
-      <c r="G140" s="13" t="s">
-        <v>1141</v>
+      <c r="G140" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="B141" s="12">
+      <c r="B141" s="4">
         <v>9781683965800</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C141" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="D141" s="13" t="s">
+      <c r="D141" t="s">
         <v>800</v>
       </c>
-      <c r="F141" s="13">
+      <c r="F141">
         <v>2023</v>
       </c>
-      <c r="G141" s="13" t="s">
-        <v>1141</v>
+      <c r="G141" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="B142" s="12">
+      <c r="B142" s="4">
         <v>9781683962137</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="C142" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="D142" t="s">
         <v>802</v>
       </c>
-      <c r="F142" s="13">
+      <c r="F142">
         <v>2019</v>
       </c>
-      <c r="G142" s="13" t="s">
-        <v>1141</v>
+      <c r="G142" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="B143" s="12">
+      <c r="B143" s="4">
         <v>9781683960447</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C143" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="D143" s="13" t="s">
+      <c r="D143" t="s">
         <v>804</v>
       </c>
-      <c r="F143" s="13">
+      <c r="F143">
         <v>2017</v>
       </c>
-      <c r="G143" s="13" t="s">
-        <v>1141</v>
+      <c r="G143" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="B144" s="12">
+      <c r="B144" s="4">
         <v>9781683960126</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C144" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="D144" s="13" t="s">
+      <c r="D144" t="s">
         <v>806</v>
       </c>
-      <c r="F144" s="13">
+      <c r="F144">
         <v>2017</v>
       </c>
-      <c r="G144" s="13" t="s">
-        <v>1141</v>
+      <c r="G144" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="B145" s="12">
+      <c r="B145" s="4">
         <v>9781606996195</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C145" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="D145" s="13" t="s">
+      <c r="D145" t="s">
         <v>808</v>
       </c>
-      <c r="F145" s="13">
+      <c r="F145">
         <v>2012</v>
       </c>
-      <c r="G145" s="13" t="s">
-        <v>1141</v>
+      <c r="G145" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="B146" s="12">
+      <c r="B146" s="4">
         <v>9781683964803</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C146" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="D146" s="13" t="s">
+      <c r="D146" t="s">
         <v>810</v>
       </c>
-      <c r="F146" s="13">
+      <c r="F146">
         <v>2021</v>
       </c>
-      <c r="G146" s="13" t="s">
-        <v>1141</v>
+      <c r="G146" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="B147" s="12">
+      <c r="B147" s="4">
         <v>9781606997116</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="C147" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="D147" s="13" t="s">
+      <c r="D147" t="s">
         <v>812</v>
       </c>
-      <c r="F147" s="13">
+      <c r="F147">
         <v>2015</v>
       </c>
-      <c r="G147" s="13" t="s">
-        <v>1141</v>
+      <c r="G147" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="B148" s="12">
+      <c r="B148" s="4">
         <v>9781683961086</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C148" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="D148" s="13" t="s">
+      <c r="D148" t="s">
         <v>814</v>
       </c>
-      <c r="F148" s="13">
+      <c r="F148">
         <v>2018</v>
       </c>
-      <c r="G148" s="13" t="s">
-        <v>1141</v>
+      <c r="G148" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="B149" s="12">
+      <c r="B149" s="4">
         <v>9781643375632</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C149" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="D149" s="13" t="s">
+      <c r="D149" t="s">
         <v>816</v>
       </c>
-      <c r="F149" s="13">
+      <c r="F149">
         <v>2023</v>
       </c>
-      <c r="G149" s="13" t="s">
-        <v>1140</v>
+      <c r="G149" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="B150" s="12">
+      <c r="B150" s="4">
         <v>9781643378732</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C150" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="D150" s="13" t="s">
+      <c r="D150" t="s">
         <v>818</v>
       </c>
-      <c r="F150" s="13">
+      <c r="F150">
         <v>2023</v>
       </c>
-      <c r="G150" s="13" t="s">
-        <v>1140</v>
+      <c r="G150" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="B151" s="12">
+      <c r="B151" s="4">
         <v>9781643376011</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="C151" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="D151" s="13" t="s">
+      <c r="D151" t="s">
         <v>820</v>
       </c>
-      <c r="F151" s="13">
+      <c r="F151">
         <v>2023</v>
       </c>
-      <c r="G151" s="13" t="s">
-        <v>1140</v>
+      <c r="G151" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="B152" s="12">
+      <c r="B152" s="4">
         <v>9781643377520</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C152" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="D152" s="13" t="s">
+      <c r="D152" t="s">
         <v>822</v>
       </c>
-      <c r="F152" s="13">
+      <c r="F152">
         <v>2019</v>
       </c>
-      <c r="G152" s="13" t="s">
-        <v>1140</v>
+      <c r="G152" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="B153" s="12">
+      <c r="B153" s="4">
         <v>9781643378695</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="C153" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="D153" s="13" t="s">
+      <c r="D153" t="s">
         <v>824</v>
       </c>
-      <c r="F153" s="13">
+      <c r="F153">
         <v>2023</v>
       </c>
-      <c r="G153" s="13" t="s">
-        <v>1140</v>
+      <c r="G153" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="B154" s="12">
+      <c r="B154" s="4">
         <v>9781643375793</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="C154" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="D154" t="s">
         <v>826</v>
       </c>
-      <c r="F154" s="13">
+      <c r="F154">
         <v>2023</v>
       </c>
-      <c r="G154" s="13" t="s">
-        <v>1140</v>
+      <c r="G154" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="B155" s="12">
+      <c r="B155" s="4">
         <v>9781594655357</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C155" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="D155" s="13" t="s">
+      <c r="D155" t="s">
         <v>828</v>
       </c>
-      <c r="F155" s="13">
+      <c r="F155">
         <v>2018</v>
       </c>
-      <c r="G155" s="13" t="s">
-        <v>1140</v>
+      <c r="G155" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="B156" s="12">
+      <c r="B156" s="4">
         <v>9781643379845</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C156" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="D156" s="13" t="s">
+      <c r="D156" t="s">
         <v>830</v>
       </c>
-      <c r="F156" s="13">
+      <c r="F156">
         <v>2022</v>
       </c>
-      <c r="G156" s="13" t="s">
-        <v>1140</v>
+      <c r="G156" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="B157" s="12">
+      <c r="B157" s="4">
         <v>9781643375243</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="C157" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="D157" s="13" t="s">
+      <c r="D157" t="s">
         <v>832</v>
       </c>
-      <c r="F157" s="13">
+      <c r="F157">
         <v>2021</v>
       </c>
-      <c r="G157" s="13" t="s">
-        <v>1140</v>
+      <c r="G157" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="B158" s="12">
+      <c r="B158" s="4">
         <v>9781643379692</v>
       </c>
-      <c r="C158" s="12" t="s">
+      <c r="C158" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="D158" s="13" t="s">
+      <c r="D158" t="s">
         <v>834</v>
       </c>
-      <c r="F158" s="13">
+      <c r="F158">
         <v>2022</v>
       </c>
-      <c r="G158" s="13" t="s">
-        <v>1140</v>
+      <c r="G158" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="B159" s="12">
+      <c r="B159" s="4">
         <v>9781643375953</v>
       </c>
-      <c r="C159" s="13" t="s">
+      <c r="C159" t="s">
         <v>835</v>
       </c>
-      <c r="D159" s="13" t="s">
+      <c r="D159" t="s">
         <v>836</v>
       </c>
-      <c r="F159" s="13">
+      <c r="F159">
         <v>2024</v>
       </c>
-      <c r="G159" s="13" t="s">
-        <v>1140</v>
+      <c r="G159" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="B160" s="12">
+      <c r="B160" s="4">
         <v>9781770466357</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="C160" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="D160" s="13" t="s">
+      <c r="D160" t="s">
         <v>838</v>
       </c>
-      <c r="F160" s="13">
+      <c r="F160">
         <v>2023</v>
       </c>
-      <c r="G160" s="13" t="s">
-        <v>1099</v>
+      <c r="G160" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="B161" s="12">
+      <c r="B161" s="4">
         <v>9781770460591</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="C161" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="D161" s="13" t="s">
+      <c r="D161" t="s">
         <v>840</v>
       </c>
-      <c r="F161" s="13">
+      <c r="F161">
         <v>2011</v>
       </c>
-      <c r="G161" s="13" t="s">
-        <v>1099</v>
+      <c r="G161" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="B162" s="12">
+      <c r="B162" s="4">
         <v>9781770464896</v>
       </c>
-      <c r="C162" s="12" t="s">
+      <c r="C162" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="D162" s="13" t="s">
+      <c r="D162" t="s">
         <v>842</v>
       </c>
       <c r="F162">
         <v>2021</v>
       </c>
       <c r="G162" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="B163" s="12">
+      <c r="B163" s="4">
         <v>9781770465046</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="C163" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="D163" s="13" t="s">
+      <c r="D163" t="s">
         <v>844</v>
       </c>
       <c r="F163">
         <v>2022</v>
       </c>
       <c r="G163" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="B164" s="12">
+      <c r="B164" s="4">
         <v>9781894937894</v>
       </c>
-      <c r="C164" s="12" t="s">
+      <c r="C164" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="D164" s="13" t="s">
+      <c r="D164" t="s">
         <v>846</v>
       </c>
       <c r="F164">
         <v>2003</v>
       </c>
       <c r="G164" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="B165" s="12">
+      <c r="B165" s="4">
         <v>9781770461260</v>
       </c>
-      <c r="C165" s="12" t="s">
+      <c r="C165" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="D165" s="13" t="s">
+      <c r="D165" t="s">
         <v>848</v>
       </c>
       <c r="F165">
         <v>2015</v>
       </c>
       <c r="G165" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="B166" s="12">
+      <c r="B166" s="4">
         <v>9781770463769</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="C166" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="D166" s="13" t="s">
+      <c r="D166" t="s">
         <v>850</v>
       </c>
       <c r="F166">
         <v>2020</v>
       </c>
       <c r="G166" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="B167" s="12">
+      <c r="B167" s="4">
         <v>9781940878300</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="C167" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="D167" s="13" t="s">
+      <c r="D167" t="s">
         <v>852</v>
       </c>
-      <c r="F167" s="13">
+      <c r="F167">
         <v>2020</v>
       </c>
-      <c r="G167" s="13" t="s">
-        <v>1132</v>
+      <c r="G167" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="B168" s="12">
+      <c r="B168" s="4">
         <v>9781940878614</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="C168" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="D168" s="13" t="s">
+      <c r="D168" t="s">
         <v>854</v>
       </c>
-      <c r="F168" s="13">
+      <c r="F168">
         <v>2024</v>
       </c>
-      <c r="G168" s="13" t="s">
-        <v>1132</v>
+      <c r="G168" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="B169" s="12">
+      <c r="B169" s="4">
         <v>9781940878768</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="C169" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="D169" s="13" t="s">
+      <c r="D169" t="s">
         <v>856</v>
       </c>
-      <c r="F169" s="13">
+      <c r="F169">
         <v>2023</v>
       </c>
-      <c r="G169" s="13" t="s">
-        <v>1132</v>
+      <c r="G169" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="B170" s="12">
+      <c r="B170" s="4">
         <v>9781954928046</v>
       </c>
-      <c r="C170" s="12" t="s">
+      <c r="C170" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="D170" s="13" t="s">
+      <c r="D170" t="s">
         <v>858</v>
       </c>
-      <c r="F170" s="13">
+      <c r="F170">
         <v>2022</v>
       </c>
-      <c r="G170" s="13" t="s">
-        <v>1132</v>
+      <c r="G170" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="B171" s="12">
+      <c r="B171" s="4">
         <v>9781940878669</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="C171" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="D171" s="13" t="s">
+      <c r="D171" t="s">
         <v>860</v>
       </c>
-      <c r="F171" s="13">
+      <c r="F171">
         <v>2021</v>
       </c>
-      <c r="G171" s="13" t="s">
-        <v>1132</v>
+      <c r="G171" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="B172" s="12">
+      <c r="B172" s="4">
         <v>9781940878652</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="C172" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="D172" s="13" t="s">
+      <c r="D172" t="s">
         <v>862</v>
       </c>
-      <c r="F172" s="13">
+      <c r="F172">
         <v>2021</v>
       </c>
-      <c r="G172" s="13" t="s">
-        <v>1132</v>
+      <c r="G172" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="B173" s="12">
+      <c r="B173" s="4">
         <v>9781940878362</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C173" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="D173" s="13" t="s">
+      <c r="D173" t="s">
         <v>864</v>
       </c>
-      <c r="F173" s="13">
+      <c r="F173">
         <v>2021</v>
       </c>
-      <c r="G173" s="13" t="s">
-        <v>1132</v>
+      <c r="G173" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="B174" s="12">
+      <c r="B174" s="4">
         <v>9781940878386</v>
       </c>
-      <c r="C174" s="12" t="s">
+      <c r="C174" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="D174" s="13" t="s">
+      <c r="D174" t="s">
         <v>866</v>
       </c>
-      <c r="F174" s="13">
+      <c r="F174">
         <v>2020</v>
       </c>
-      <c r="G174" s="13" t="s">
-        <v>1132</v>
+      <c r="G174" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="B175" s="12">
+      <c r="B175" s="4">
         <v>9781940878867</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="C175" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="D175" s="13" t="s">
+      <c r="D175" t="s">
         <v>868</v>
       </c>
-      <c r="F175" s="13">
+      <c r="F175">
         <v>2024</v>
       </c>
-      <c r="G175" s="13" t="s">
-        <v>1132</v>
+      <c r="G175" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="B176" s="12">
+      <c r="B176" s="4">
         <v>9798886560428</v>
       </c>
-      <c r="C176" s="12" t="s">
+      <c r="C176" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="D176" s="13" t="s">
+      <c r="D176" t="s">
         <v>870</v>
       </c>
-      <c r="F176" s="13">
+      <c r="F176">
         <v>2023</v>
       </c>
-      <c r="G176" s="13" t="s">
-        <v>1132</v>
+      <c r="G176" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="B177" s="12">
+      <c r="B177" s="4">
         <v>9798886560381</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="C177" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="D177" s="13" t="s">
+      <c r="D177" t="s">
         <v>872</v>
       </c>
-      <c r="F177" s="13">
+      <c r="F177">
         <v>2024</v>
       </c>
-      <c r="G177" s="13" t="s">
-        <v>1132</v>
+      <c r="G177" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="B178" s="12">
+      <c r="B178" s="4">
         <v>9781682618981</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C178" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="D178" s="13" t="s">
+      <c r="D178" t="s">
         <v>874</v>
       </c>
-      <c r="F178" s="13">
+      <c r="F178">
         <v>2020</v>
       </c>
-      <c r="G178" s="13" t="s">
-        <v>1133</v>
+      <c r="G178" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="B179" s="12">
+      <c r="B179" s="4">
         <v>9781781086179</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C179" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="D179" s="13" t="s">
+      <c r="D179" t="s">
         <v>876</v>
       </c>
-      <c r="F179" s="13">
+      <c r="F179">
         <v>2018</v>
       </c>
-      <c r="G179" s="13" t="s">
-        <v>1134</v>
+      <c r="G179" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="B180" s="12">
+      <c r="B180" s="4">
         <v>9781501166433</v>
       </c>
-      <c r="C180" s="12" t="s">
+      <c r="C180" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="D180" s="13" t="s">
+      <c r="D180" t="s">
         <v>878</v>
       </c>
-      <c r="F180" s="13">
+      <c r="F180">
         <v>2018</v>
       </c>
-      <c r="G180" s="13" t="s">
-        <v>1135</v>
+      <c r="G180" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="B181" s="12">
+      <c r="B181" s="4">
         <v>9781501190780</v>
       </c>
-      <c r="C181" s="12" t="s">
+      <c r="C181" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="D181" s="13" t="s">
+      <c r="D181" t="s">
         <v>880</v>
       </c>
-      <c r="F181" s="13">
+      <c r="F181">
         <v>2020</v>
       </c>
-      <c r="G181" s="13" t="s">
-        <v>1135</v>
+      <c r="G181" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="B182" s="12">
+      <c r="B182" s="4">
         <v>9781954412323</v>
       </c>
-      <c r="C182" s="12" t="s">
+      <c r="C182" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="D182" s="13" t="s">
+      <c r="D182" t="s">
         <v>882</v>
       </c>
-      <c r="F182" s="13">
+      <c r="F182">
         <v>2021</v>
       </c>
-      <c r="G182" s="13" t="s">
-        <v>1136</v>
+      <c r="G182" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="B183" s="12">
+      <c r="B183" s="4">
         <v>9781644230695</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="C183" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="D183" s="13" t="s">
+      <c r="D183" t="s">
         <v>884</v>
       </c>
-      <c r="F183" s="13">
+      <c r="F183">
         <v>2022</v>
       </c>
-      <c r="G183" s="13" t="s">
-        <v>1137</v>
+      <c r="G183" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="B184" s="12">
+      <c r="B184" s="4">
         <v>9781683834472</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C184" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="D184" s="13" t="s">
+      <c r="D184" t="s">
         <v>886</v>
       </c>
-      <c r="F184" s="13">
+      <c r="F184">
         <v>2019</v>
       </c>
-      <c r="G184" s="13" t="s">
-        <v>1138</v>
+      <c r="G184" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="B185" s="12">
+      <c r="B185" s="4">
         <v>9781683834489</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="C185" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="D185" s="13" t="s">
+      <c r="D185" t="s">
         <v>888</v>
       </c>
-      <c r="F185" s="13">
+      <c r="F185">
         <v>2020</v>
       </c>
-      <c r="G185" s="13" t="s">
-        <v>1138</v>
+      <c r="G185" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="B186" s="12">
+      <c r="B186" s="4">
         <v>9781643131962</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="C186" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="D186" s="13" t="s">
+      <c r="D186" t="s">
         <v>890</v>
       </c>
-      <c r="F186" s="13">
+      <c r="F186">
         <v>2021</v>
       </c>
-      <c r="G186" s="13" t="s">
-        <v>1139</v>
+      <c r="G186" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="B187" s="12">
+      <c r="B187" s="4">
         <v>9781643130163</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="C187" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="D187" s="13" t="s">
+      <c r="D187" t="s">
         <v>892</v>
       </c>
-      <c r="F187" s="13">
+      <c r="F187">
         <v>2019</v>
       </c>
-      <c r="G187" s="13" t="s">
-        <v>1139</v>
+      <c r="G187" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="B188" s="12">
+      <c r="B188" s="4">
         <v>9781681778556</v>
       </c>
-      <c r="C188" s="12" t="s">
+      <c r="C188" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="D188" s="13" t="s">
+      <c r="D188" t="s">
         <v>894</v>
       </c>
-      <c r="F188" s="13">
+      <c r="F188">
         <v>2018</v>
       </c>
-      <c r="G188" s="13" t="s">
-        <v>1139</v>
+      <c r="G188" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="B189" s="12">
+      <c r="B189" s="4">
         <v>9781681772172</v>
       </c>
-      <c r="C189" s="12" t="s">
+      <c r="C189" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="D189" s="13" t="s">
+      <c r="D189" t="s">
         <v>896</v>
       </c>
-      <c r="F189" s="13">
+      <c r="F189">
         <v>2016</v>
       </c>
-      <c r="G189" s="13" t="s">
-        <v>1139</v>
+      <c r="G189" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="B190" s="12">
+      <c r="B190" s="4">
         <v>9781935982494</v>
       </c>
-      <c r="C190" s="12" t="s">
+      <c r="C190" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="D190" s="13" t="s">
+      <c r="D190" t="s">
         <v>898</v>
       </c>
       <c r="F190">
         <v>2015</v>
       </c>
       <c r="G190" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="B191" s="12">
+      <c r="B191" s="4">
         <v>9781788737906</v>
       </c>
-      <c r="C191" s="12" t="s">
+      <c r="C191" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="D191" s="13" t="s">
+      <c r="D191" t="s">
         <v>900</v>
       </c>
       <c r="F191">
         <v>2023</v>
       </c>
       <c r="G191" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="B192" s="12">
+      <c r="B192" s="4">
         <v>9781781680988</v>
       </c>
-      <c r="C192" s="12" t="s">
+      <c r="C192" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="D192" s="13" t="s">
+      <c r="D192" t="s">
         <v>902</v>
       </c>
       <c r="F192">
         <v>2013</v>
       </c>
       <c r="G192" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="B193" s="12">
+      <c r="B193" s="4">
         <v>9781786636874</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="C193" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="D193" s="13" t="s">
+      <c r="D193" t="s">
         <v>904</v>
       </c>
       <c r="F193">
         <v>2019</v>
       </c>
       <c r="G193" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="B194" s="12">
+      <c r="B194" s="4">
         <v>9781849353021</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="C194" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D194" s="13" t="s">
+      <c r="D194" t="s">
         <v>906</v>
       </c>
       <c r="F194">
         <v>2018</v>
       </c>
       <c r="G194" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="B195" s="12">
+      <c r="B195" s="4">
         <v>9781849352406</v>
       </c>
-      <c r="C195" s="12" t="s">
+      <c r="C195" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="D195" s="13" t="s">
+      <c r="D195" t="s">
         <v>908</v>
       </c>
       <c r="F195">
         <v>2016</v>
       </c>
       <c r="G195" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="B196" s="12">
+      <c r="B196" s="4">
         <v>9780807081792</v>
       </c>
-      <c r="C196" s="12" t="s">
+      <c r="C196" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="D196" s="13" t="s">
+      <c r="D196" t="s">
         <v>910</v>
       </c>
       <c r="F196">
         <v>2021</v>
       </c>
       <c r="G196" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="B197" s="12">
+      <c r="B197" s="4">
         <v>9781608461868</v>
       </c>
-      <c r="C197" s="12" t="s">
+      <c r="C197" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="D197" s="13" t="s">
+      <c r="D197" t="s">
         <v>912</v>
       </c>
       <c r="F197">
         <v>2013</v>
       </c>
       <c r="G197" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="B198" s="12">
+      <c r="B198" s="4">
         <v>9798887440347</v>
       </c>
-      <c r="C198" s="12" t="s">
+      <c r="C198" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="D198" s="13" t="s">
+      <c r="D198" t="s">
         <v>914</v>
       </c>
       <c r="F198">
         <v>2024</v>
       </c>
       <c r="G198" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="B199" s="12">
+      <c r="B199" s="4">
         <v>9781551529219</v>
       </c>
-      <c r="C199" s="12" t="s">
+      <c r="C199" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="D199" s="13" t="s">
+      <c r="D199" t="s">
         <v>916</v>
       </c>
       <c r="F199">
         <v>2023</v>
       </c>
       <c r="G199" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="B200" s="12">
+      <c r="B200" s="4">
         <v>9781551526508</v>
       </c>
-      <c r="C200" s="12" t="s">
+      <c r="C200" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="D200" s="13" t="s">
+      <c r="D200" t="s">
         <v>918</v>
       </c>
       <c r="F200">
         <v>2016</v>
       </c>
       <c r="G200" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="B201" s="12">
+      <c r="B201" s="4">
         <v>9781770462793</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="C201" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="D201" s="13" t="s">
+      <c r="D201" t="s">
         <v>920</v>
       </c>
-      <c r="F201" s="15">
+      <c r="F201">
         <v>2017</v>
       </c>
-      <c r="G201" s="15" t="s">
-        <v>1099</v>
+      <c r="G201" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="B202" s="12">
+      <c r="B202" s="4">
         <v>9781910620151</v>
       </c>
-      <c r="C202" s="12" t="s">
+      <c r="C202" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="D202" s="13" t="s">
+      <c r="D202" t="s">
         <v>922</v>
       </c>
-      <c r="F202" s="15">
+      <c r="F202">
         <v>2017</v>
       </c>
-      <c r="G202" s="15" t="s">
-        <v>1100</v>
+      <c r="G202" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="B203" s="12">
+      <c r="B203" s="4">
         <v>9781910620502</v>
       </c>
-      <c r="C203" s="12" t="s">
+      <c r="C203" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="D203" s="13" t="s">
+      <c r="D203" t="s">
         <v>924</v>
       </c>
-      <c r="F203" s="15">
+      <c r="F203">
         <v>2019</v>
       </c>
-      <c r="G203" s="15" t="s">
-        <v>1101</v>
+      <c r="G203" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="B204" s="14">
+      <c r="B204" s="4">
         <v>9791032813171</v>
       </c>
-      <c r="C204" s="12" t="s">
+      <c r="C204" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="D204" s="13" t="s">
+      <c r="D204" t="s">
         <v>925</v>
       </c>
-      <c r="F204" s="15">
+      <c r="F204">
         <v>2022</v>
       </c>
-      <c r="G204" s="15" t="s">
-        <v>1102</v>
+      <c r="G204" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="B205" s="12">
+      <c r="B205" s="4">
         <v>9781912097418</v>
       </c>
-      <c r="C205" s="12" t="s">
+      <c r="C205" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="D205" s="13" t="s">
+      <c r="D205" t="s">
         <v>927</v>
       </c>
-      <c r="F205" s="15">
+      <c r="F205">
         <v>2020</v>
       </c>
-      <c r="G205" s="15" t="s">
-        <v>1103</v>
+      <c r="G205" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="B206" s="12">
+      <c r="B206" s="4">
         <v>9781937512453</v>
       </c>
-      <c r="C206" s="12" t="s">
+      <c r="C206" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="D206" s="13" t="s">
+      <c r="D206" t="s">
         <v>929</v>
       </c>
-      <c r="F206" s="15">
+      <c r="F206">
         <v>2016</v>
       </c>
-      <c r="G206" s="15" t="s">
-        <v>1104</v>
+      <c r="G206" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="B207" s="12">
+      <c r="B207" s="4">
         <v>9781772620238</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="C207" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="D207" s="13" t="s">
+      <c r="D207" t="s">
         <v>931</v>
       </c>
-      <c r="F207" s="15">
+      <c r="F207">
         <v>2018</v>
       </c>
-      <c r="G207" s="15" t="s">
-        <v>1105</v>
+      <c r="G207" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="B208" s="12">
+      <c r="B208" s="4">
         <v>9781568585598</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="C208" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="D208" s="13" t="s">
+      <c r="D208" t="s">
         <v>933</v>
       </c>
-      <c r="F208" s="15">
+      <c r="F208">
         <v>2017</v>
       </c>
-      <c r="G208" s="15" t="s">
-        <v>1106</v>
+      <c r="G208" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="B209" s="12">
+      <c r="B209" s="4">
         <v>9784805316955</v>
       </c>
-      <c r="C209" s="12" t="s">
+      <c r="C209" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="D209" s="13" t="s">
+      <c r="D209" t="s">
         <v>935</v>
       </c>
-      <c r="F209" s="15">
+      <c r="F209">
         <v>2022</v>
       </c>
-      <c r="G209" s="15" t="s">
-        <v>1107</v>
+      <c r="G209" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="B210" s="12">
+      <c r="B210" s="4">
         <v>9781771132268</v>
       </c>
-      <c r="C210" s="12" t="s">
+      <c r="C210" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="D210" s="13" t="s">
+      <c r="D210" t="s">
         <v>937</v>
       </c>
-      <c r="F210" s="15">
+      <c r="F210">
         <v>2016</v>
       </c>
-      <c r="G210" s="15" t="s">
-        <v>1108</v>
+      <c r="G210" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="B211" s="12">
+      <c r="B211" s="4">
         <v>9781987834284</v>
       </c>
-      <c r="C211" s="12" t="s">
+      <c r="C211" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="D211" s="13" t="s">
+      <c r="D211" t="s">
         <v>939</v>
       </c>
-      <c r="F211" s="15">
+      <c r="F211">
         <v>2021</v>
       </c>
-      <c r="G211" s="15" t="s">
-        <v>1109</v>
+      <c r="G211" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="B212" s="12">
+      <c r="B212" s="4">
         <v>9781616552565</v>
       </c>
-      <c r="C212" s="12" t="s">
+      <c r="C212" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="D212" s="13" t="s">
+      <c r="D212" t="s">
         <v>941</v>
       </c>
-      <c r="F212" s="15">
+      <c r="F212">
         <v>2016</v>
       </c>
-      <c r="G212" s="15" t="s">
-        <v>1110</v>
+      <c r="G212" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="B213" s="12">
-        <v>9781596438279</v>
-      </c>
-      <c r="C213" s="12" t="s">
-        <v>760</v>
-      </c>
-      <c r="D213" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="F213" s="15">
-        <v>2013</v>
-      </c>
-      <c r="G213" s="15" t="s">
+      <c r="B213" s="4">
+        <v>9781427871367</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="D213" t="s">
+        <v>943</v>
+      </c>
+      <c r="F213">
+        <v>2023</v>
+      </c>
+      <c r="G213" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -8793,19 +8781,19 @@
       <c r="A214" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="B214" s="12">
-        <v>9781427871367</v>
-      </c>
-      <c r="C214" s="12" t="s">
-        <v>942</v>
-      </c>
-      <c r="D214" s="13" t="s">
-        <v>943</v>
-      </c>
-      <c r="F214" s="15">
-        <v>2023</v>
-      </c>
-      <c r="G214" s="15" t="s">
+      <c r="B214" s="4">
+        <v>9781786278937</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="D214" t="s">
+        <v>945</v>
+      </c>
+      <c r="F214">
+        <v>2021</v>
+      </c>
+      <c r="G214" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -8813,19 +8801,19 @@
       <c r="A215" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="B215" s="12">
-        <v>9781786278937</v>
-      </c>
-      <c r="C215" s="12" t="s">
-        <v>944</v>
-      </c>
-      <c r="D215" s="13" t="s">
-        <v>945</v>
-      </c>
-      <c r="F215" s="15">
-        <v>2021</v>
-      </c>
-      <c r="G215" s="15" t="s">
+      <c r="B215" s="4">
+        <v>9781935548270</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="D215" t="s">
+        <v>947</v>
+      </c>
+      <c r="F215">
+        <v>2013</v>
+      </c>
+      <c r="G215" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -8833,39 +8821,39 @@
       <c r="A216" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="B216" s="12">
-        <v>9781935548270</v>
-      </c>
-      <c r="C216" s="12" t="s">
-        <v>946</v>
-      </c>
-      <c r="D216" s="13" t="s">
-        <v>947</v>
-      </c>
-      <c r="F216" s="15">
-        <v>2013</v>
-      </c>
-      <c r="G216" s="15" t="s">
-        <v>1114</v>
+      <c r="B216" s="4">
+        <v>9781935548515</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D216" t="s">
+        <v>949</v>
+      </c>
+      <c r="F216">
+        <v>2014</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="B217" s="12">
-        <v>9781935548515</v>
-      </c>
-      <c r="C217" s="12" t="s">
-        <v>948</v>
-      </c>
-      <c r="D217" s="13" t="s">
-        <v>949</v>
-      </c>
-      <c r="F217" s="15">
-        <v>2014</v>
-      </c>
-      <c r="G217" s="15" t="s">
+      <c r="B217" s="4">
+        <v>9781073418466</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="D217" t="s">
+        <v>951</v>
+      </c>
+      <c r="F217">
+        <v>2019</v>
+      </c>
+      <c r="G217" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -8873,19 +8861,19 @@
       <c r="A218" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="B218" s="12">
-        <v>9781073418466</v>
-      </c>
-      <c r="C218" s="12" t="s">
-        <v>950</v>
-      </c>
-      <c r="D218" s="13" t="s">
-        <v>951</v>
-      </c>
-      <c r="F218" s="15">
-        <v>2019</v>
-      </c>
-      <c r="G218" s="15" t="s">
+      <c r="B218" s="4">
+        <v>9781770859401</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="D218" t="s">
+        <v>953</v>
+      </c>
+      <c r="F218">
+        <v>2017</v>
+      </c>
+      <c r="G218" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -8893,19 +8881,19 @@
       <c r="A219" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="B219" s="12">
-        <v>9781770859401</v>
-      </c>
-      <c r="C219" s="12" t="s">
-        <v>952</v>
-      </c>
-      <c r="D219" s="13" t="s">
-        <v>953</v>
-      </c>
-      <c r="F219" s="15">
-        <v>2017</v>
-      </c>
-      <c r="G219" s="15" t="s">
+      <c r="B219" s="4">
+        <v>9780231191821</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="D219" t="s">
+        <v>955</v>
+      </c>
+      <c r="F219">
+        <v>2021</v>
+      </c>
+      <c r="G219" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -8913,19 +8901,19 @@
       <c r="A220" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="B220" s="12">
-        <v>9780231191821</v>
-      </c>
-      <c r="C220" s="12" t="s">
-        <v>954</v>
-      </c>
-      <c r="D220" s="13" t="s">
-        <v>955</v>
-      </c>
-      <c r="F220" s="15">
-        <v>2021</v>
-      </c>
-      <c r="G220" s="15" t="s">
+      <c r="B220" s="4">
+        <v>9781978834217</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="D220" t="s">
+        <v>957</v>
+      </c>
+      <c r="F220">
+        <v>2023</v>
+      </c>
+      <c r="G220" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -8933,19 +8921,19 @@
       <c r="A221" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="B221" s="12">
-        <v>9781978834217</v>
-      </c>
-      <c r="C221" s="12" t="s">
-        <v>956</v>
-      </c>
-      <c r="D221" s="13" t="s">
-        <v>957</v>
-      </c>
-      <c r="F221" s="15">
-        <v>2023</v>
-      </c>
-      <c r="G221" s="15" t="s">
+      <c r="B221" s="4">
+        <v>9781647290573</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="D221" t="s">
+        <v>959</v>
+      </c>
+      <c r="F221">
+        <v>2021</v>
+      </c>
+      <c r="G221" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -8953,19 +8941,19 @@
       <c r="A222" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="B222" s="12">
-        <v>9781647290573</v>
-      </c>
-      <c r="C222" s="12" t="s">
-        <v>958</v>
-      </c>
-      <c r="D222" s="13" t="s">
-        <v>959</v>
-      </c>
-      <c r="F222" s="15">
-        <v>2021</v>
-      </c>
-      <c r="G222" s="15" t="s">
+      <c r="B222" s="4">
+        <v>9781637150153</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="D222" t="s">
+        <v>961</v>
+      </c>
+      <c r="F222">
+        <v>2022</v>
+      </c>
+      <c r="G222" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -8973,59 +8961,59 @@
       <c r="A223" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="B223" s="12">
-        <v>9781637150153</v>
-      </c>
-      <c r="C223" s="12" t="s">
-        <v>960</v>
-      </c>
-      <c r="D223" s="13" t="s">
-        <v>961</v>
-      </c>
-      <c r="F223" s="15">
-        <v>2022</v>
-      </c>
-      <c r="G223" s="15" t="s">
-        <v>1120</v>
+      <c r="B223" s="4">
+        <v>9781772620320</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="D223" t="s">
+        <v>963</v>
+      </c>
+      <c r="F223">
+        <v>2020</v>
+      </c>
+      <c r="G223" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="B224" s="12">
-        <v>9781772620320</v>
-      </c>
-      <c r="C224" s="12" t="s">
-        <v>962</v>
-      </c>
-      <c r="D224" s="13" t="s">
-        <v>963</v>
-      </c>
-      <c r="F224" s="15">
-        <v>2020</v>
-      </c>
-      <c r="G224" s="15" t="s">
-        <v>1105</v>
+      <c r="B224" s="4">
+        <v>9781950912650</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="D224" t="s">
+        <v>965</v>
+      </c>
+      <c r="F224">
+        <v>2022</v>
+      </c>
+      <c r="G224" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="B225" s="12">
-        <v>9781950912650</v>
-      </c>
-      <c r="C225" s="12" t="s">
-        <v>964</v>
-      </c>
-      <c r="D225" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="F225" s="15">
-        <v>2022</v>
-      </c>
-      <c r="G225" s="15" t="s">
+      <c r="B225" s="4">
+        <v>9781948886116</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="D225" t="s">
+        <v>967</v>
+      </c>
+      <c r="F225">
+        <v>2021</v>
+      </c>
+      <c r="G225" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -9033,19 +9021,19 @@
       <c r="A226" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="B226" s="12">
-        <v>9781948886116</v>
-      </c>
-      <c r="C226" s="12" t="s">
-        <v>966</v>
-      </c>
-      <c r="D226" s="13" t="s">
-        <v>967</v>
-      </c>
-      <c r="F226" s="15">
+      <c r="B226" s="4">
+        <v>9781970047134</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="D226" t="s">
+        <v>969</v>
+      </c>
+      <c r="F226">
         <v>2021</v>
       </c>
-      <c r="G226" s="15" t="s">
+      <c r="G226" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -9053,19 +9041,19 @@
       <c r="A227" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="B227" s="12">
-        <v>9781970047134</v>
-      </c>
-      <c r="C227" s="12" t="s">
-        <v>968</v>
-      </c>
-      <c r="D227" s="13" t="s">
-        <v>969</v>
-      </c>
-      <c r="F227" s="15">
-        <v>2021</v>
-      </c>
-      <c r="G227" s="15" t="s">
+      <c r="B227" s="4">
+        <v>9780711288423</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="D227" t="s">
+        <v>971</v>
+      </c>
+      <c r="F227">
+        <v>2023</v>
+      </c>
+      <c r="G227" t="s">
         <v>1123</v>
       </c>
     </row>
@@ -9073,61 +9061,40 @@
       <c r="A228" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="B228" s="12">
-        <v>9780711288423</v>
-      </c>
-      <c r="C228" s="12" t="s">
-        <v>970</v>
-      </c>
-      <c r="D228" s="13" t="s">
-        <v>971</v>
-      </c>
-      <c r="F228" s="15">
-        <v>2023</v>
-      </c>
-      <c r="G228" s="15" t="s">
-        <v>1124</v>
+      <c r="B228" s="4">
+        <v>9780711290785</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="D228" t="s">
+        <v>973</v>
+      </c>
+      <c r="F228">
+        <v>2024</v>
+      </c>
+      <c r="G228" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="B229" s="12">
-        <v>9780711290785</v>
-      </c>
-      <c r="C229" s="12" t="s">
-        <v>972</v>
-      </c>
-      <c r="D229" s="13" t="s">
-        <v>973</v>
-      </c>
-      <c r="F229" s="15">
+      <c r="B229" s="4">
+        <v>9780711290761</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="D229" t="s">
+        <v>975</v>
+      </c>
+      <c r="F229">
         <v>2024</v>
       </c>
-      <c r="G229" s="15" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B230" s="12">
-        <v>9780711290761</v>
-      </c>
-      <c r="C230" s="12" t="s">
-        <v>974</v>
-      </c>
-      <c r="D230" s="13" t="s">
-        <v>975</v>
-      </c>
-      <c r="E230" s="13"/>
-      <c r="F230" s="16">
-        <v>2024</v>
-      </c>
-      <c r="G230" s="15" t="s">
-        <v>1124</v>
+      <c r="G229" t="s">
+        <v>1123</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Goodreads_Comics_Data/Data_Files/Masterdata_ongoing.xlsx
+++ b/Data/Goodreads_Comics_Data/Data_Files/Masterdata_ongoing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/odessialiu/Projects/Modernist_Remediation_ReMedia/Data/Goodreads_Comics_Data/Data_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qilinliu\Desktop\Modernist_Remediation_ReMedia\Data\Goodreads_Comics_Data\Data_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E3E8A-AF22-B348-B52A-6445872C6EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749EE5BE-437E-4E3E-A3EC-E02A692B155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15370" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOK_SHEET" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,13 @@
     <sheet name="SUBJECT_PERIOD_SHEET" sheetId="3" r:id="rId3"/>
     <sheet name="BOOK_SUBJECT_SHEET" sheetId="4" r:id="rId4"/>
     <sheet name="TRANSLATION_SHEET" sheetId="5" r:id="rId5"/>
-    <sheet name="BOOK_REVIEW_SHEET" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="1143">
   <si>
     <t>book_id</t>
   </si>
@@ -3454,16 +3453,13 @@
   </si>
   <si>
     <t>Random Cómics</t>
-  </si>
-  <si>
-    <t>scraped_review_num</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3492,12 +3488,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3513,7 +3503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3521,26 +3511,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3563,9 +3538,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3584,9 +3556,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3624,7 +3596,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3730,7 +3702,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3872,7 +3844,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3882,11 +3854,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A84" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -3899,7 +3871,7 @@
     <col min="9" max="9" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3928,7 +3900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -3954,7 +3926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3980,7 +3952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4006,7 +3978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -4032,7 +4004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -4058,7 +4030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -4087,7 +4059,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -4113,7 +4085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -4139,7 +4111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -4165,7 +4137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -4191,7 +4163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -4220,7 +4192,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -4246,7 +4218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -4272,7 +4244,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -4298,7 +4270,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -4324,7 +4296,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
@@ -4350,7 +4322,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
@@ -4376,7 +4348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
@@ -4402,7 +4374,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
@@ -4431,7 +4403,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
         <v>87</v>
       </c>
@@ -4460,7 +4432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
@@ -4486,7 +4458,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>95</v>
       </c>
@@ -4515,7 +4487,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>100</v>
       </c>
@@ -4541,7 +4513,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
@@ -4567,7 +4539,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
         <v>108</v>
       </c>
@@ -4593,7 +4565,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
         <v>112</v>
       </c>
@@ -4619,7 +4591,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
         <v>116</v>
       </c>
@@ -4645,7 +4617,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
         <v>119</v>
       </c>
@@ -4671,7 +4643,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
         <v>123</v>
       </c>
@@ -4697,7 +4669,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
         <v>127</v>
       </c>
@@ -4723,7 +4695,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
         <v>131</v>
       </c>
@@ -4749,7 +4721,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
         <v>135</v>
       </c>
@@ -4775,7 +4747,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
         <v>139</v>
       </c>
@@ -4801,7 +4773,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
         <v>144</v>
       </c>
@@ -4827,7 +4799,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>148</v>
       </c>
@@ -4853,7 +4825,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
         <v>152</v>
       </c>
@@ -4879,7 +4851,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
         <v>156</v>
       </c>
@@ -4905,7 +4877,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
         <v>160</v>
       </c>
@@ -4931,7 +4903,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
         <v>164</v>
       </c>
@@ -4957,7 +4929,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
         <v>167</v>
       </c>
@@ -4983,7 +4955,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
         <v>171</v>
       </c>
@@ -5012,7 +4984,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
         <v>176</v>
       </c>
@@ -5038,7 +5010,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
@@ -5064,7 +5036,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
         <v>184</v>
       </c>
@@ -5090,7 +5062,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
         <v>188</v>
       </c>
@@ -5119,7 +5091,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
         <v>193</v>
       </c>
@@ -5145,7 +5117,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
         <v>197</v>
       </c>
@@ -5171,7 +5143,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="2" t="s">
         <v>200</v>
       </c>
@@ -5197,7 +5169,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
         <v>204</v>
       </c>
@@ -5223,7 +5195,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -5249,7 +5221,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
         <v>212</v>
       </c>
@@ -5275,7 +5247,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
         <v>216</v>
       </c>
@@ -5301,7 +5273,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
         <v>219</v>
       </c>
@@ -5327,7 +5299,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="2" t="s">
         <v>223</v>
       </c>
@@ -5353,7 +5325,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
         <v>226</v>
       </c>
@@ -5379,7 +5351,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
         <v>230</v>
       </c>
@@ -5405,7 +5377,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
         <v>234</v>
       </c>
@@ -5431,7 +5403,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
         <v>238</v>
       </c>
@@ -5457,7 +5429,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
         <v>241</v>
       </c>
@@ -5483,7 +5455,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
         <v>245</v>
       </c>
@@ -5509,7 +5481,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
         <v>249</v>
       </c>
@@ -5535,7 +5507,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
         <v>253</v>
       </c>
@@ -5561,7 +5533,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
         <v>257</v>
       </c>
@@ -5587,7 +5559,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="2" t="s">
         <v>261</v>
       </c>
@@ -5613,7 +5585,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="2" t="s">
         <v>265</v>
       </c>
@@ -5639,7 +5611,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="2" t="s">
         <v>269</v>
       </c>
@@ -5668,7 +5640,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
         <v>273</v>
       </c>
@@ -5694,7 +5666,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
         <v>276</v>
       </c>
@@ -5720,7 +5692,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
         <v>280</v>
       </c>
@@ -5746,7 +5718,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="2" t="s">
         <v>284</v>
       </c>
@@ -5772,7 +5744,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
         <v>288</v>
       </c>
@@ -5798,7 +5770,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="2" t="s">
         <v>292</v>
       </c>
@@ -5824,7 +5796,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
         <v>296</v>
       </c>
@@ -5850,7 +5822,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="2" t="s">
         <v>301</v>
       </c>
@@ -5876,7 +5848,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
         <v>305</v>
       </c>
@@ -5902,7 +5874,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="2" t="s">
         <v>309</v>
       </c>
@@ -5928,7 +5900,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="2" t="s">
         <v>313</v>
       </c>
@@ -5954,7 +5926,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="2" t="s">
         <v>317</v>
       </c>
@@ -5980,7 +5952,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="2" t="s">
         <v>321</v>
       </c>
@@ -6006,7 +5978,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="2" t="s">
         <v>325</v>
       </c>
@@ -6032,7 +6004,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
         <v>329</v>
       </c>
@@ -6061,7 +6033,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" s="2" t="s">
         <v>334</v>
       </c>
@@ -6087,7 +6059,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="2" t="s">
         <v>338</v>
       </c>
@@ -6113,7 +6085,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="2" t="s">
         <v>342</v>
       </c>
@@ -6139,7 +6111,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="2" t="s">
         <v>346</v>
       </c>
@@ -6165,7 +6137,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" s="2" t="s">
         <v>350</v>
       </c>
@@ -6191,7 +6163,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" s="2" t="s">
         <v>353</v>
       </c>
@@ -6217,7 +6189,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="2" t="s">
         <v>357</v>
       </c>
@@ -6243,7 +6215,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" s="2" t="s">
         <v>361</v>
       </c>
@@ -6269,7 +6241,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" s="2" t="s">
         <v>366</v>
       </c>
@@ -6295,7 +6267,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" s="2" t="s">
         <v>370</v>
       </c>
@@ -6321,7 +6293,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" s="2" t="s">
         <v>374</v>
       </c>
@@ -6347,7 +6319,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" s="2" t="s">
         <v>378</v>
       </c>
@@ -6373,7 +6345,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="2" t="s">
         <v>382</v>
       </c>
@@ -6399,7 +6371,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
         <v>386</v>
       </c>
@@ -6425,7 +6397,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" s="2" t="s">
         <v>390</v>
       </c>
@@ -6451,7 +6423,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
         <v>394</v>
       </c>
@@ -6477,7 +6449,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" s="2" t="s">
         <v>398</v>
       </c>
@@ -6503,7 +6475,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" s="2" t="s">
         <v>402</v>
       </c>
@@ -6523,7 +6495,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" s="2" t="s">
         <v>405</v>
       </c>
@@ -6543,7 +6515,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
         <v>408</v>
       </c>
@@ -6563,7 +6535,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" s="2" t="s">
         <v>411</v>
       </c>
@@ -6583,7 +6555,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
         <v>414</v>
       </c>
@@ -6603,7 +6575,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" s="2" t="s">
         <v>417</v>
       </c>
@@ -6623,7 +6595,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
         <v>420</v>
       </c>
@@ -6643,7 +6615,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107" s="2" t="s">
         <v>423</v>
       </c>
@@ -6663,7 +6635,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
         <v>427</v>
       </c>
@@ -6683,7 +6655,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="A109" s="2" t="s">
         <v>431</v>
       </c>
@@ -6703,7 +6675,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110" s="2" t="s">
         <v>435</v>
       </c>
@@ -6723,7 +6695,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111" s="2" t="s">
         <v>438</v>
       </c>
@@ -6743,7 +6715,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
         <v>441</v>
       </c>
@@ -6763,7 +6735,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
         <v>444</v>
       </c>
@@ -6783,7 +6755,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="2" t="s">
         <v>447</v>
       </c>
@@ -6803,7 +6775,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="2" t="s">
         <v>450</v>
       </c>
@@ -6823,7 +6795,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="2" t="s">
         <v>453</v>
       </c>
@@ -6843,7 +6815,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="2" t="s">
         <v>456</v>
       </c>
@@ -6863,7 +6835,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="2" t="s">
         <v>459</v>
       </c>
@@ -6883,7 +6855,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
         <v>462</v>
       </c>
@@ -6903,7 +6875,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="2" t="s">
         <v>465</v>
       </c>
@@ -6923,7 +6895,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="2" t="s">
         <v>468</v>
       </c>
@@ -6943,7 +6915,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="2" t="s">
         <v>471</v>
       </c>
@@ -6963,7 +6935,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="2" t="s">
         <v>474</v>
       </c>
@@ -6983,7 +6955,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="2" t="s">
         <v>477</v>
       </c>
@@ -7003,7 +6975,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="2" t="s">
         <v>481</v>
       </c>
@@ -7023,7 +6995,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="2" t="s">
         <v>484</v>
       </c>
@@ -7043,7 +7015,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
         <v>488</v>
       </c>
@@ -7063,7 +7035,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
         <v>491</v>
       </c>
@@ -7083,7 +7055,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
         <v>494</v>
       </c>
@@ -7103,7 +7075,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="2" t="s">
         <v>497</v>
       </c>
@@ -7123,7 +7095,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="2" t="s">
         <v>500</v>
       </c>
@@ -7143,7 +7115,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="2" t="s">
         <v>503</v>
       </c>
@@ -7163,7 +7135,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
         <v>507</v>
       </c>
@@ -7183,7 +7155,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="2" t="s">
         <v>510</v>
       </c>
@@ -7203,7 +7175,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
         <v>513</v>
       </c>
@@ -7223,7 +7195,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="2" t="s">
         <v>516</v>
       </c>
@@ -7243,7 +7215,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="2" t="s">
         <v>519</v>
       </c>
@@ -7263,7 +7235,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="2" t="s">
         <v>522</v>
       </c>
@@ -7283,7 +7255,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" s="2" t="s">
         <v>525</v>
       </c>
@@ -7303,7 +7275,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" s="2" t="s">
         <v>528</v>
       </c>
@@ -7323,7 +7295,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" s="2" t="s">
         <v>531</v>
       </c>
@@ -7343,7 +7315,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" s="2" t="s">
         <v>534</v>
       </c>
@@ -7363,7 +7335,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" s="2" t="s">
         <v>537</v>
       </c>
@@ -7383,7 +7355,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" s="2" t="s">
         <v>540</v>
       </c>
@@ -7403,7 +7375,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="2" t="s">
         <v>543</v>
       </c>
@@ -7423,7 +7395,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="2" t="s">
         <v>546</v>
       </c>
@@ -7443,7 +7415,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
         <v>549</v>
       </c>
@@ -7463,7 +7435,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" s="2" t="s">
         <v>552</v>
       </c>
@@ -7483,7 +7455,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" s="2" t="s">
         <v>555</v>
       </c>
@@ -7503,7 +7475,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" s="2" t="s">
         <v>559</v>
       </c>
@@ -7523,7 +7495,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="2" t="s">
         <v>562</v>
       </c>
@@ -7543,7 +7515,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="2" t="s">
         <v>565</v>
       </c>
@@ -7563,7 +7535,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="2" t="s">
         <v>568</v>
       </c>
@@ -7583,7 +7555,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="2" t="s">
         <v>571</v>
       </c>
@@ -7603,7 +7575,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="2" t="s">
         <v>574</v>
       </c>
@@ -7623,7 +7595,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="2" t="s">
         <v>577</v>
       </c>
@@ -7643,7 +7615,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" s="2" t="s">
         <v>580</v>
       </c>
@@ -7663,7 +7635,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" s="2" t="s">
         <v>583</v>
       </c>
@@ -7683,7 +7655,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" s="2" t="s">
         <v>586</v>
       </c>
@@ -7703,7 +7675,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" s="2" t="s">
         <v>589</v>
       </c>
@@ -7723,7 +7695,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" s="2" t="s">
         <v>593</v>
       </c>
@@ -7743,7 +7715,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" s="2" t="s">
         <v>596</v>
       </c>
@@ -7763,7 +7735,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" s="2" t="s">
         <v>599</v>
       </c>
@@ -7783,7 +7755,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" s="2" t="s">
         <v>602</v>
       </c>
@@ -7803,7 +7775,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" s="2" t="s">
         <v>605</v>
       </c>
@@ -7823,7 +7795,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" s="2" t="s">
         <v>608</v>
       </c>
@@ -7843,7 +7815,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" s="2" t="s">
         <v>611</v>
       </c>
@@ -7863,7 +7835,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" s="2" t="s">
         <v>615</v>
       </c>
@@ -7883,7 +7855,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" s="2" t="s">
         <v>618</v>
       </c>
@@ -7903,7 +7875,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" s="2" t="s">
         <v>621</v>
       </c>
@@ -7923,7 +7895,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" s="2" t="s">
         <v>624</v>
       </c>
@@ -7943,7 +7915,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" s="2" t="s">
         <v>627</v>
       </c>
@@ -7963,7 +7935,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" s="2" t="s">
         <v>630</v>
       </c>
@@ -7983,7 +7955,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174" s="2" t="s">
         <v>633</v>
       </c>
@@ -8003,7 +7975,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" s="2" t="s">
         <v>636</v>
       </c>
@@ -8023,7 +7995,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" s="2" t="s">
         <v>639</v>
       </c>
@@ -8043,7 +8015,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" s="2" t="s">
         <v>642</v>
       </c>
@@ -8063,7 +8035,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" s="2" t="s">
         <v>645</v>
       </c>
@@ -8083,7 +8055,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" s="2" t="s">
         <v>649</v>
       </c>
@@ -8103,7 +8075,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" s="2" t="s">
         <v>653</v>
       </c>
@@ -8123,7 +8095,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" s="2" t="s">
         <v>657</v>
       </c>
@@ -8143,7 +8115,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" s="2" t="s">
         <v>660</v>
       </c>
@@ -8163,7 +8135,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" s="2" t="s">
         <v>664</v>
       </c>
@@ -8183,7 +8155,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" s="2" t="s">
         <v>668</v>
       </c>
@@ -8203,7 +8175,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" s="2" t="s">
         <v>672</v>
       </c>
@@ -8223,7 +8195,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" s="2" t="s">
         <v>675</v>
       </c>
@@ -8243,7 +8215,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" s="2" t="s">
         <v>679</v>
       </c>
@@ -8263,7 +8235,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" s="2" t="s">
         <v>682</v>
       </c>
@@ -8283,7 +8255,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" s="2" t="s">
         <v>685</v>
       </c>
@@ -8303,7 +8275,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" s="2" t="s">
         <v>688</v>
       </c>
@@ -8323,7 +8295,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" s="2" t="s">
         <v>692</v>
       </c>
@@ -8343,7 +8315,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" s="2" t="s">
         <v>696</v>
       </c>
@@ -8363,7 +8335,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" s="2" t="s">
         <v>699</v>
       </c>
@@ -8383,7 +8355,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194" s="2" t="s">
         <v>702</v>
       </c>
@@ -8403,7 +8375,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" s="2" t="s">
         <v>706</v>
       </c>
@@ -8423,7 +8395,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" s="2" t="s">
         <v>709</v>
       </c>
@@ -8443,7 +8415,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197" s="2" t="s">
         <v>713</v>
       </c>
@@ -8463,7 +8435,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" s="2" t="s">
         <v>717</v>
       </c>
@@ -8483,7 +8455,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199" s="2" t="s">
         <v>721</v>
       </c>
@@ -8503,7 +8475,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200" s="2" t="s">
         <v>725</v>
       </c>
@@ -8523,7 +8495,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" s="2" t="s">
         <v>728</v>
       </c>
@@ -8543,7 +8515,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" s="2" t="s">
         <v>731</v>
       </c>
@@ -8563,7 +8535,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203" s="2" t="s">
         <v>735</v>
       </c>
@@ -8583,7 +8555,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204" s="2" t="s">
         <v>739</v>
       </c>
@@ -8603,7 +8575,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205" s="2" t="s">
         <v>743</v>
       </c>
@@ -8623,7 +8595,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7">
       <c r="A206" s="2" t="s">
         <v>747</v>
       </c>
@@ -8643,7 +8615,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207" s="2" t="s">
         <v>751</v>
       </c>
@@ -8663,7 +8635,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208" s="2" t="s">
         <v>755</v>
       </c>
@@ -8683,7 +8655,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" s="2" t="s">
         <v>759</v>
       </c>
@@ -8703,7 +8675,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210" s="2" t="s">
         <v>763</v>
       </c>
@@ -8723,7 +8695,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" s="2" t="s">
         <v>767</v>
       </c>
@@ -8743,7 +8715,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" s="2" t="s">
         <v>771</v>
       </c>
@@ -8763,7 +8735,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213" s="2" t="s">
         <v>775</v>
       </c>
@@ -8783,7 +8755,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214" s="2" t="s">
         <v>779</v>
       </c>
@@ -8803,7 +8775,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215" s="2" t="s">
         <v>783</v>
       </c>
@@ -8823,7 +8795,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216" s="2" t="s">
         <v>787</v>
       </c>
@@ -8843,7 +8815,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" s="2" t="s">
         <v>790</v>
       </c>
@@ -8863,7 +8835,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218" s="2" t="s">
         <v>794</v>
       </c>
@@ -8883,7 +8855,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" s="2" t="s">
         <v>798</v>
       </c>
@@ -8903,7 +8875,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220" s="2" t="s">
         <v>802</v>
       </c>
@@ -8923,7 +8895,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221" s="2" t="s">
         <v>806</v>
       </c>
@@ -8943,7 +8915,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222" s="2" t="s">
         <v>810</v>
       </c>
@@ -8963,7 +8935,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" s="2" t="s">
         <v>814</v>
       </c>
@@ -8983,7 +8955,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224" s="2" t="s">
         <v>817</v>
       </c>
@@ -9003,7 +8975,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225" s="2" t="s">
         <v>821</v>
       </c>
@@ -9023,7 +8995,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7">
       <c r="A226" s="2" t="s">
         <v>825</v>
       </c>
@@ -9043,7 +9015,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227" s="2" t="s">
         <v>829</v>
       </c>
@@ -9063,7 +9035,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228" s="2" t="s">
         <v>833</v>
       </c>
@@ -9083,7 +9055,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="A229" s="2" t="s">
         <v>836</v>
       </c>
@@ -9116,7 +9088,7 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -9127,7 +9099,7 @@
     <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>839</v>
       </c>
@@ -9156,7 +9128,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>848</v>
       </c>
@@ -9179,7 +9151,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>852</v>
       </c>
@@ -9196,7 +9168,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>855</v>
       </c>
@@ -9219,7 +9191,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>859</v>
       </c>
@@ -9236,7 +9208,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>861</v>
       </c>
@@ -9253,7 +9225,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>864</v>
       </c>
@@ -9270,7 +9242,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>866</v>
       </c>
@@ -9299,7 +9271,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>869</v>
       </c>
@@ -9319,7 +9291,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>871</v>
       </c>
@@ -9348,7 +9320,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>874</v>
       </c>
@@ -9371,7 +9343,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>877</v>
       </c>
@@ -9400,7 +9372,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>879</v>
       </c>
@@ -9423,7 +9395,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>882</v>
       </c>
@@ -9452,7 +9424,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>885</v>
       </c>
@@ -9481,7 +9453,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="11" customFormat="1">
       <c r="A16" s="11" t="s">
         <v>888</v>
       </c>
@@ -9507,7 +9479,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="11" customFormat="1">
       <c r="A17" s="11" t="s">
         <v>891</v>
       </c>
@@ -9530,7 +9502,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>894</v>
       </c>
@@ -9547,7 +9519,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>897</v>
       </c>
@@ -9576,7 +9548,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>900</v>
       </c>
@@ -9599,7 +9571,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>903</v>
       </c>
@@ -9622,7 +9594,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>906</v>
       </c>
@@ -9639,7 +9611,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
         <v>909</v>
       </c>
@@ -9668,7 +9640,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>912</v>
       </c>
@@ -9697,7 +9669,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>913</v>
       </c>
@@ -9726,7 +9698,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>916</v>
       </c>
@@ -9755,7 +9727,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>919</v>
       </c>
@@ -9778,7 +9750,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>922</v>
       </c>
@@ -9807,7 +9779,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>924</v>
       </c>
@@ -9830,7 +9802,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>926</v>
       </c>
@@ -9859,7 +9831,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>929</v>
       </c>
@@ -9888,7 +9860,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>932</v>
       </c>
@@ -9917,7 +9889,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>934</v>
       </c>
@@ -9946,7 +9918,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>937</v>
       </c>
@@ -9975,7 +9947,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>941</v>
       </c>
@@ -9998,7 +9970,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>944</v>
       </c>
@@ -10021,7 +9993,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>947</v>
       </c>
@@ -10050,7 +10022,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>949</v>
       </c>
@@ -10079,7 +10051,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>952</v>
       </c>
@@ -10108,7 +10080,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>955</v>
       </c>
@@ -10137,7 +10109,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>958</v>
       </c>
@@ -10166,7 +10138,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>961</v>
       </c>
@@ -10195,7 +10167,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>963</v>
       </c>
@@ -10224,7 +10196,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>966</v>
       </c>
@@ -10247,7 +10219,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="11" customFormat="1">
       <c r="A45" s="11" t="s">
         <v>969</v>
       </c>
@@ -10255,7 +10227,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>971</v>
       </c>
@@ -10284,7 +10256,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="11" customFormat="1">
       <c r="A47" s="11" t="s">
         <v>974</v>
       </c>
@@ -10313,7 +10285,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>977</v>
       </c>
@@ -10342,7 +10314,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>979</v>
       </c>
@@ -10371,7 +10343,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>982</v>
       </c>
@@ -10400,7 +10372,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>985</v>
       </c>
@@ -10429,7 +10401,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>987</v>
       </c>
@@ -10452,7 +10424,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>990</v>
       </c>
@@ -10481,7 +10453,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>993</v>
       </c>
@@ -10510,7 +10482,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>995</v>
       </c>
@@ -10533,7 +10505,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>998</v>
       </c>
@@ -10576,12 +10548,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>839</v>
       </c>
@@ -10602,9 +10574,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10612,7 +10584,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -10620,7 +10592,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -10628,7 +10600,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -10636,7 +10608,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -10644,7 +10616,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -10652,7 +10624,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -10660,7 +10632,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -10668,7 +10640,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -10676,7 +10648,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -10684,7 +10656,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -10692,7 +10664,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -10700,7 +10672,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -10708,7 +10680,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -10716,7 +10688,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -10724,7 +10696,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -10732,7 +10704,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -10740,7 +10712,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -10748,7 +10720,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
@@ -10756,7 +10728,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
@@ -10764,7 +10736,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
@@ -10772,7 +10744,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
@@ -10780,7 +10752,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>87</v>
       </c>
@@ -10788,7 +10760,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
@@ -10796,7 +10768,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>95</v>
       </c>
@@ -10804,7 +10776,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>100</v>
       </c>
@@ -10812,7 +10784,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>104</v>
       </c>
@@ -10820,7 +10792,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
         <v>108</v>
       </c>
@@ -10828,7 +10800,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
         <v>112</v>
       </c>
@@ -10836,7 +10808,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
         <v>116</v>
       </c>
@@ -10844,7 +10816,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
@@ -10852,7 +10824,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
         <v>123</v>
       </c>
@@ -10860,7 +10832,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>127</v>
       </c>
@@ -10868,7 +10840,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
         <v>131</v>
       </c>
@@ -10876,7 +10848,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
         <v>135</v>
       </c>
@@ -10884,7 +10856,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>139</v>
       </c>
@@ -10892,7 +10864,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
         <v>144</v>
       </c>
@@ -10900,7 +10872,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
         <v>148</v>
       </c>
@@ -10908,7 +10880,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
         <v>152</v>
       </c>
@@ -10916,7 +10888,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
         <v>156</v>
       </c>
@@ -10924,7 +10896,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
         <v>156</v>
       </c>
@@ -10932,7 +10904,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
         <v>160</v>
       </c>
@@ -10940,7 +10912,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
         <v>164</v>
       </c>
@@ -10948,7 +10920,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
         <v>167</v>
       </c>
@@ -10956,7 +10928,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
         <v>167</v>
       </c>
@@ -10964,7 +10936,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
         <v>171</v>
       </c>
@@ -10972,7 +10944,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
         <v>176</v>
       </c>
@@ -10980,7 +10952,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
         <v>180</v>
       </c>
@@ -10988,7 +10960,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
         <v>184</v>
       </c>
@@ -10996,7 +10968,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
         <v>184</v>
       </c>
@@ -11004,7 +10976,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
         <v>184</v>
       </c>
@@ -11012,7 +10984,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
         <v>184</v>
       </c>
@@ -11020,7 +10992,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
         <v>188</v>
       </c>
@@ -11028,7 +11000,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
         <v>193</v>
       </c>
@@ -11036,7 +11008,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
         <v>197</v>
       </c>
@@ -11044,7 +11016,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
         <v>200</v>
       </c>
@@ -11052,7 +11024,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
         <v>204</v>
       </c>
@@ -11060,7 +11032,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
         <v>208</v>
       </c>
@@ -11068,42 +11040,42 @@
         <v>998</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
         <v>238</v>
       </c>
@@ -11117,11 +11089,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
@@ -11133,7 +11105,7 @@
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11159,7 +11131,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -11185,7 +11157,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -11211,7 +11183,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -11237,7 +11209,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -11263,7 +11235,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -11289,7 +11261,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -11315,7 +11287,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -11323,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -11331,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -11357,7 +11329,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -11383,7 +11355,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -11409,7 +11381,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="17" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -11435,7 +11407,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -11461,7 +11433,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -11487,7 +11459,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -11495,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
@@ -11503,7 +11475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
@@ -11511,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
@@ -11537,7 +11509,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
@@ -11563,7 +11535,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>87</v>
       </c>
@@ -11589,7 +11561,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="17" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
@@ -11615,7 +11587,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>95</v>
       </c>
@@ -11623,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>100</v>
       </c>
@@ -11649,7 +11621,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
@@ -11675,7 +11647,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>108</v>
       </c>
@@ -11701,7 +11673,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>112</v>
       </c>
@@ -11727,7 +11699,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>116</v>
       </c>
@@ -11753,7 +11725,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>119</v>
       </c>
@@ -11761,7 +11733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>123</v>
       </c>
@@ -11787,7 +11759,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>127</v>
       </c>
@@ -11795,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>131</v>
       </c>
@@ -11803,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>135</v>
       </c>
@@ -11829,7 +11801,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>139</v>
       </c>
@@ -11855,7 +11827,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>144</v>
       </c>
@@ -11881,7 +11853,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>148</v>
       </c>
@@ -11907,7 +11879,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
         <v>152</v>
       </c>
@@ -11933,7 +11905,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
         <v>156</v>
       </c>
@@ -11941,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
         <v>160</v>
       </c>
@@ -11967,12 +11939,12 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
         <v>167</v>
       </c>
@@ -11980,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>171</v>
       </c>
@@ -11988,7 +11960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
         <v>176</v>
       </c>
@@ -12014,7 +11986,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
@@ -12040,7 +12012,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
         <v>184</v>
       </c>
@@ -12048,7 +12020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
         <v>188</v>
       </c>
@@ -12056,7 +12028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
         <v>193</v>
       </c>
@@ -12082,7 +12054,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
         <v>197</v>
       </c>
@@ -12108,7 +12080,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
         <v>200</v>
       </c>
@@ -12134,7 +12106,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
         <v>204</v>
       </c>
@@ -12160,7 +12132,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -12186,222 +12158,222 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
         <v>382</v>
       </c>
@@ -12427,12 +12399,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
         <v>390</v>
       </c>
@@ -12458,7 +12430,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
         <v>394</v>
       </c>
@@ -12481,7 +12453,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
         <v>398</v>
       </c>
@@ -12489,1885 +12461,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="2"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" s="2"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="2"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B229"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B43">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B44">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B45">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B46">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B48">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B49">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B50">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B51">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B53">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B54">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B55">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B56">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B57">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B58">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B59">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B60">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B61">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B62">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B63">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B64">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B65">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B66">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B67">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B68">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B69">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B70">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B71">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B72">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B73">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B74">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B75">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B76">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B77">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B78">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B79">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B80">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B81">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B82">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B83">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B84">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B85">
-        <v>4066</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B86">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B87">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B88">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B89">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B90">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B91">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B92">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B93">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B94">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B95">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B96">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B97">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B99">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B100">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B101">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B102">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B103">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B104">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B105">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B106">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B107">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B108">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B109">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B110">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B111">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B112">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B113">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B114">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B115">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B116">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B117">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B118">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B119">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B120">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B121">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B122">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B123">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B124">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B125">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B126">
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B127">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B128">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B129">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B130">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B131">
-        <v>2819</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B132">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B133">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B134">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B135">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B136">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B137">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B138">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B139">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B141">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B142">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B143">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B144">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B145">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B146">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B147">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B148">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B149">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B150">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B151">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="B152">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B153">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="B154">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B155">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B156">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B157">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B158">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B159">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B160">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B161">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B162">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B163">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B164">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B165">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="B166">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B167">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="B169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="B170">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B172">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B173">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B174">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B176">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B179">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B180">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B181">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="B182">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="B183">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="B184">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="B185">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="B186">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="B187">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="B188">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B189">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="B190">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="B191">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="B192">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="B193">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="B194">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B195">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B196">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="B197">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B198">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="B199">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B200">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="B201">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="B202">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="B203">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="B204">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="B205">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="B206">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B207">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="B208">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="B209">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B210">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="B211">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B212">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="B213">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="B214">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="B215">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="B216">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="B217">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="B218">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="B219">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="B220">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="B221">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="B222">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="B223">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="B224">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="B225">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="B226">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="B227">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="B228">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="B229">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Data/Goodreads_Comics_Data/Data_Files/Masterdata_ongoing.xlsx
+++ b/Data/Goodreads_Comics_Data/Data_Files/Masterdata_ongoing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qilinliu\Desktop\Modernist_Remediation_ReMedia\Data\Goodreads_Comics_Data\Data_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/odessialiu/Projects/Modernist_Remediation_ReMedia/Data/Goodreads_Comics_Data/Data_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749EE5BE-437E-4E3E-A3EC-E02A692B155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ED3DDF-3E52-0D4C-8B9F-762BCD5C0D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15370" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOK_SHEET" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="SUBJECT_PERIOD_SHEET" sheetId="3" r:id="rId3"/>
     <sheet name="BOOK_SUBJECT_SHEET" sheetId="4" r:id="rId4"/>
     <sheet name="TRANSLATION_SHEET" sheetId="5" r:id="rId5"/>
+    <sheet name="BOOK_REVIEW_SHEET" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1145">
   <si>
     <t>book_id</t>
   </si>
@@ -3453,13 +3454,19 @@
   </si>
   <si>
     <t>Random Cómics</t>
+  </si>
+  <si>
+    <t>review_num</t>
+  </si>
+  <si>
+    <t>review_num_en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3488,6 +3495,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3503,7 +3516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3511,11 +3524,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3538,6 +3566,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3854,11 +3885,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -3871,7 +3902,7 @@
     <col min="9" max="9" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3900,7 +3931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -3926,7 +3957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3952,7 +3983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3978,7 +4009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -4004,7 +4035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -4030,7 +4061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -4059,7 +4090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -4085,7 +4116,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -4111,7 +4142,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -4137,7 +4168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -4163,7 +4194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -4192,7 +4223,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -4218,7 +4249,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -4244,7 +4275,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -4270,7 +4301,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -4296,7 +4327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
@@ -4322,7 +4353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
@@ -4348,7 +4379,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
@@ -4374,7 +4405,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
@@ -4403,7 +4434,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>87</v>
       </c>
@@ -4432,7 +4463,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
@@ -4458,7 +4489,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>95</v>
       </c>
@@ -4487,7 +4518,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>100</v>
       </c>
@@ -4513,7 +4544,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
@@ -4539,7 +4570,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>108</v>
       </c>
@@ -4565,7 +4596,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>112</v>
       </c>
@@ -4591,7 +4622,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>116</v>
       </c>
@@ -4617,7 +4648,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>119</v>
       </c>
@@ -4643,7 +4674,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>123</v>
       </c>
@@ -4669,7 +4700,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>127</v>
       </c>
@@ -4695,7 +4726,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>131</v>
       </c>
@@ -4721,7 +4752,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>135</v>
       </c>
@@ -4747,7 +4778,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>139</v>
       </c>
@@ -4773,7 +4804,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>144</v>
       </c>
@@ -4799,7 +4830,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>148</v>
       </c>
@@ -4825,7 +4856,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>152</v>
       </c>
@@ -4851,7 +4882,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>156</v>
       </c>
@@ -4877,7 +4908,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>160</v>
       </c>
@@ -4903,7 +4934,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>164</v>
       </c>
@@ -4929,7 +4960,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>167</v>
       </c>
@@ -4955,7 +4986,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>171</v>
       </c>
@@ -4984,7 +5015,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>176</v>
       </c>
@@ -5010,7 +5041,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
@@ -5036,7 +5067,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>184</v>
       </c>
@@ -5062,7 +5093,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>188</v>
       </c>
@@ -5091,7 +5122,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>193</v>
       </c>
@@ -5117,7 +5148,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>197</v>
       </c>
@@ -5143,7 +5174,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>200</v>
       </c>
@@ -5169,7 +5200,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>204</v>
       </c>
@@ -5195,7 +5226,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -5221,7 +5252,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>212</v>
       </c>
@@ -5247,7 +5278,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>216</v>
       </c>
@@ -5273,7 +5304,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>219</v>
       </c>
@@ -5299,7 +5330,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>223</v>
       </c>
@@ -5325,7 +5356,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>226</v>
       </c>
@@ -5351,7 +5382,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>230</v>
       </c>
@@ -5377,7 +5408,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>234</v>
       </c>
@@ -5403,7 +5434,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>238</v>
       </c>
@@ -5429,7 +5460,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>241</v>
       </c>
@@ -5455,7 +5486,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>245</v>
       </c>
@@ -5481,7 +5512,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>249</v>
       </c>
@@ -5507,7 +5538,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>253</v>
       </c>
@@ -5533,7 +5564,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>257</v>
       </c>
@@ -5559,7 +5590,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>261</v>
       </c>
@@ -5585,7 +5616,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>265</v>
       </c>
@@ -5611,7 +5642,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>269</v>
       </c>
@@ -5640,7 +5671,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>273</v>
       </c>
@@ -5666,7 +5697,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>276</v>
       </c>
@@ -5692,7 +5723,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>280</v>
       </c>
@@ -5718,7 +5749,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>284</v>
       </c>
@@ -5744,7 +5775,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>288</v>
       </c>
@@ -5770,7 +5801,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>292</v>
       </c>
@@ -5796,7 +5827,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>296</v>
       </c>
@@ -5822,7 +5853,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>301</v>
       </c>
@@ -5848,7 +5879,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>305</v>
       </c>
@@ -5874,7 +5905,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>309</v>
       </c>
@@ -5900,7 +5931,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>313</v>
       </c>
@@ -5926,7 +5957,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>317</v>
       </c>
@@ -5952,7 +5983,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>321</v>
       </c>
@@ -5978,7 +6009,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>325</v>
       </c>
@@ -6004,7 +6035,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>329</v>
       </c>
@@ -6033,7 +6064,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>334</v>
       </c>
@@ -6059,7 +6090,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>338</v>
       </c>
@@ -6085,7 +6116,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>342</v>
       </c>
@@ -6111,7 +6142,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>346</v>
       </c>
@@ -6137,7 +6168,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>350</v>
       </c>
@@ -6163,7 +6194,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>353</v>
       </c>
@@ -6189,7 +6220,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>357</v>
       </c>
@@ -6215,7 +6246,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>361</v>
       </c>
@@ -6241,7 +6272,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>366</v>
       </c>
@@ -6267,7 +6298,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>370</v>
       </c>
@@ -6293,7 +6324,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>374</v>
       </c>
@@ -6319,7 +6350,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>378</v>
       </c>
@@ -6345,7 +6376,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>382</v>
       </c>
@@ -6371,7 +6402,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>386</v>
       </c>
@@ -6397,7 +6428,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>390</v>
       </c>
@@ -6423,7 +6454,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>394</v>
       </c>
@@ -6449,7 +6480,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>398</v>
       </c>
@@ -6475,7 +6506,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>402</v>
       </c>
@@ -6495,7 +6526,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>405</v>
       </c>
@@ -6515,7 +6546,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>408</v>
       </c>
@@ -6535,7 +6566,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>411</v>
       </c>
@@ -6555,7 +6586,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>414</v>
       </c>
@@ -6575,7 +6606,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>417</v>
       </c>
@@ -6595,7 +6626,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>420</v>
       </c>
@@ -6615,7 +6646,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>423</v>
       </c>
@@ -6635,7 +6666,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>427</v>
       </c>
@@ -6655,7 +6686,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>431</v>
       </c>
@@ -6675,7 +6706,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>435</v>
       </c>
@@ -6695,7 +6726,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>438</v>
       </c>
@@ -6715,7 +6746,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>441</v>
       </c>
@@ -6735,7 +6766,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>444</v>
       </c>
@@ -6755,7 +6786,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>447</v>
       </c>
@@ -6775,7 +6806,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>450</v>
       </c>
@@ -6795,7 +6826,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>453</v>
       </c>
@@ -6815,7 +6846,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>456</v>
       </c>
@@ -6835,7 +6866,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>459</v>
       </c>
@@ -6855,7 +6886,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>462</v>
       </c>
@@ -6875,7 +6906,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>465</v>
       </c>
@@ -6895,7 +6926,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>468</v>
       </c>
@@ -6915,7 +6946,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>471</v>
       </c>
@@ -6935,7 +6966,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>474</v>
       </c>
@@ -6955,7 +6986,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>477</v>
       </c>
@@ -6975,7 +7006,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>481</v>
       </c>
@@ -6995,7 +7026,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>484</v>
       </c>
@@ -7015,7 +7046,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>488</v>
       </c>
@@ -7035,7 +7066,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>491</v>
       </c>
@@ -7055,7 +7086,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>494</v>
       </c>
@@ -7075,7 +7106,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>497</v>
       </c>
@@ -7095,7 +7126,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>500</v>
       </c>
@@ -7115,7 +7146,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>503</v>
       </c>
@@ -7135,7 +7166,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>507</v>
       </c>
@@ -7155,7 +7186,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>510</v>
       </c>
@@ -7175,7 +7206,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>513</v>
       </c>
@@ -7195,7 +7226,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>516</v>
       </c>
@@ -7215,7 +7246,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>519</v>
       </c>
@@ -7235,7 +7266,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>522</v>
       </c>
@@ -7255,7 +7286,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>525</v>
       </c>
@@ -7275,7 +7306,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>528</v>
       </c>
@@ -7295,7 +7326,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>531</v>
       </c>
@@ -7315,7 +7346,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>534</v>
       </c>
@@ -7335,7 +7366,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>537</v>
       </c>
@@ -7355,7 +7386,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>540</v>
       </c>
@@ -7375,7 +7406,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>543</v>
       </c>
@@ -7395,7 +7426,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>546</v>
       </c>
@@ -7415,7 +7446,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>549</v>
       </c>
@@ -7435,7 +7466,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>552</v>
       </c>
@@ -7455,7 +7486,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>555</v>
       </c>
@@ -7475,7 +7506,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>559</v>
       </c>
@@ -7495,7 +7526,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>562</v>
       </c>
@@ -7515,7 +7546,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>565</v>
       </c>
@@ -7535,7 +7566,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>568</v>
       </c>
@@ -7555,7 +7586,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>571</v>
       </c>
@@ -7575,7 +7606,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>574</v>
       </c>
@@ -7595,7 +7626,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>577</v>
       </c>
@@ -7615,7 +7646,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>580</v>
       </c>
@@ -7635,7 +7666,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>583</v>
       </c>
@@ -7655,7 +7686,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>586</v>
       </c>
@@ -7675,7 +7706,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>589</v>
       </c>
@@ -7695,7 +7726,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>593</v>
       </c>
@@ -7715,7 +7746,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>596</v>
       </c>
@@ -7735,7 +7766,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>599</v>
       </c>
@@ -7755,7 +7786,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>602</v>
       </c>
@@ -7775,7 +7806,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>605</v>
       </c>
@@ -7795,7 +7826,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>608</v>
       </c>
@@ -7815,7 +7846,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>611</v>
       </c>
@@ -7835,7 +7866,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>615</v>
       </c>
@@ -7855,7 +7886,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>618</v>
       </c>
@@ -7875,7 +7906,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>621</v>
       </c>
@@ -7895,7 +7926,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>624</v>
       </c>
@@ -7915,7 +7946,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>627</v>
       </c>
@@ -7935,7 +7966,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>630</v>
       </c>
@@ -7955,7 +7986,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>633</v>
       </c>
@@ -7975,7 +8006,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>636</v>
       </c>
@@ -7995,7 +8026,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>639</v>
       </c>
@@ -8015,7 +8046,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>642</v>
       </c>
@@ -8035,7 +8066,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>645</v>
       </c>
@@ -8055,7 +8086,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>649</v>
       </c>
@@ -8075,7 +8106,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>653</v>
       </c>
@@ -8095,7 +8126,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>657</v>
       </c>
@@ -8115,7 +8146,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>660</v>
       </c>
@@ -8135,7 +8166,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>664</v>
       </c>
@@ -8155,7 +8186,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>668</v>
       </c>
@@ -8175,7 +8206,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>672</v>
       </c>
@@ -8195,7 +8226,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>675</v>
       </c>
@@ -8215,7 +8246,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>679</v>
       </c>
@@ -8235,7 +8266,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>682</v>
       </c>
@@ -8255,7 +8286,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>685</v>
       </c>
@@ -8275,7 +8306,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>688</v>
       </c>
@@ -8295,7 +8326,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>692</v>
       </c>
@@ -8315,7 +8346,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>696</v>
       </c>
@@ -8335,7 +8366,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>699</v>
       </c>
@@ -8355,7 +8386,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>702</v>
       </c>
@@ -8375,7 +8406,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>706</v>
       </c>
@@ -8395,7 +8426,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>709</v>
       </c>
@@ -8415,7 +8446,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>713</v>
       </c>
@@ -8435,7 +8466,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>717</v>
       </c>
@@ -8455,7 +8486,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>721</v>
       </c>
@@ -8475,7 +8506,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>725</v>
       </c>
@@ -8495,7 +8526,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>728</v>
       </c>
@@ -8515,7 +8546,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>731</v>
       </c>
@@ -8535,7 +8566,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>735</v>
       </c>
@@ -8555,7 +8586,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>739</v>
       </c>
@@ -8575,7 +8606,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>743</v>
       </c>
@@ -8595,7 +8626,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>747</v>
       </c>
@@ -8615,7 +8646,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>751</v>
       </c>
@@ -8635,7 +8666,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>755</v>
       </c>
@@ -8655,7 +8686,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>759</v>
       </c>
@@ -8675,7 +8706,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>763</v>
       </c>
@@ -8695,7 +8726,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>767</v>
       </c>
@@ -8715,7 +8746,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>771</v>
       </c>
@@ -8735,7 +8766,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>775</v>
       </c>
@@ -8755,7 +8786,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>779</v>
       </c>
@@ -8775,7 +8806,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>783</v>
       </c>
@@ -8795,7 +8826,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>787</v>
       </c>
@@ -8815,7 +8846,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>790</v>
       </c>
@@ -8835,7 +8866,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>794</v>
       </c>
@@ -8855,7 +8886,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>798</v>
       </c>
@@ -8875,7 +8906,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>802</v>
       </c>
@@ -8895,7 +8926,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>806</v>
       </c>
@@ -8915,7 +8946,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>810</v>
       </c>
@@ -8935,7 +8966,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>814</v>
       </c>
@@ -8955,7 +8986,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>817</v>
       </c>
@@ -8975,7 +9006,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>821</v>
       </c>
@@ -8995,7 +9026,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>825</v>
       </c>
@@ -9015,7 +9046,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>829</v>
       </c>
@@ -9035,7 +9066,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>833</v>
       </c>
@@ -9055,7 +9086,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>836</v>
       </c>
@@ -9088,7 +9119,7 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -9099,7 +9130,7 @@
     <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>839</v>
       </c>
@@ -9128,7 +9159,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>848</v>
       </c>
@@ -9151,7 +9182,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>852</v>
       </c>
@@ -9168,7 +9199,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>855</v>
       </c>
@@ -9191,7 +9222,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>859</v>
       </c>
@@ -9208,7 +9239,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>861</v>
       </c>
@@ -9225,7 +9256,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>864</v>
       </c>
@@ -9242,7 +9273,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>866</v>
       </c>
@@ -9271,7 +9302,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>869</v>
       </c>
@@ -9291,7 +9322,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>871</v>
       </c>
@@ -9320,7 +9351,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>874</v>
       </c>
@@ -9343,7 +9374,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>877</v>
       </c>
@@ -9372,7 +9403,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>879</v>
       </c>
@@ -9395,7 +9426,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>882</v>
       </c>
@@ -9424,7 +9455,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>885</v>
       </c>
@@ -9453,7 +9484,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1">
+    <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>888</v>
       </c>
@@ -9479,7 +9510,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="11" customFormat="1">
+    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>891</v>
       </c>
@@ -9502,7 +9533,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>894</v>
       </c>
@@ -9519,7 +9550,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>897</v>
       </c>
@@ -9548,7 +9579,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>900</v>
       </c>
@@ -9571,7 +9602,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>903</v>
       </c>
@@ -9594,7 +9625,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>906</v>
       </c>
@@ -9611,7 +9642,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>909</v>
       </c>
@@ -9640,7 +9671,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>912</v>
       </c>
@@ -9669,7 +9700,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>913</v>
       </c>
@@ -9698,7 +9729,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>916</v>
       </c>
@@ -9727,7 +9758,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>919</v>
       </c>
@@ -9750,7 +9781,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>922</v>
       </c>
@@ -9779,7 +9810,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>924</v>
       </c>
@@ -9802,7 +9833,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>926</v>
       </c>
@@ -9831,7 +9862,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>929</v>
       </c>
@@ -9860,7 +9891,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>932</v>
       </c>
@@ -9889,7 +9920,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>934</v>
       </c>
@@ -9918,7 +9949,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>937</v>
       </c>
@@ -9947,7 +9978,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>941</v>
       </c>
@@ -9970,7 +10001,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>944</v>
       </c>
@@ -9993,7 +10024,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>947</v>
       </c>
@@ -10022,7 +10053,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>949</v>
       </c>
@@ -10051,7 +10082,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>952</v>
       </c>
@@ -10080,7 +10111,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>955</v>
       </c>
@@ -10109,7 +10140,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>958</v>
       </c>
@@ -10138,7 +10169,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>961</v>
       </c>
@@ -10167,7 +10198,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>963</v>
       </c>
@@ -10196,7 +10227,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>966</v>
       </c>
@@ -10219,7 +10250,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="11" customFormat="1">
+    <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>969</v>
       </c>
@@ -10227,7 +10258,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>971</v>
       </c>
@@ -10256,7 +10287,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="11" customFormat="1">
+    <row r="47" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>974</v>
       </c>
@@ -10285,7 +10316,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>977</v>
       </c>
@@ -10314,7 +10345,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>979</v>
       </c>
@@ -10343,7 +10374,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>982</v>
       </c>
@@ -10372,7 +10403,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>985</v>
       </c>
@@ -10401,7 +10432,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>987</v>
       </c>
@@ -10424,7 +10455,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>990</v>
       </c>
@@ -10453,7 +10484,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>993</v>
       </c>
@@ -10482,7 +10513,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>995</v>
       </c>
@@ -10505,7 +10536,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>998</v>
       </c>
@@ -10548,12 +10579,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>839</v>
       </c>
@@ -10574,9 +10605,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1">
+    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10584,7 +10615,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -10592,7 +10623,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -10600,7 +10631,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -10608,7 +10639,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -10616,7 +10647,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -10624,7 +10655,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -10632,7 +10663,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -10640,7 +10671,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -10648,7 +10679,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -10656,7 +10687,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -10664,7 +10695,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -10672,7 +10703,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -10680,7 +10711,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -10688,7 +10719,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -10696,7 +10727,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -10704,7 +10735,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -10712,7 +10743,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -10720,7 +10751,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
@@ -10728,7 +10759,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
@@ -10736,7 +10767,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
@@ -10744,7 +10775,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
@@ -10752,7 +10783,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>87</v>
       </c>
@@ -10760,7 +10791,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
@@ -10768,7 +10799,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>95</v>
       </c>
@@ -10776,7 +10807,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>100</v>
       </c>
@@ -10784,7 +10815,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>104</v>
       </c>
@@ -10792,7 +10823,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>108</v>
       </c>
@@ -10800,7 +10831,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>112</v>
       </c>
@@ -10808,7 +10839,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>116</v>
       </c>
@@ -10816,7 +10847,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
@@ -10824,7 +10855,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>123</v>
       </c>
@@ -10832,7 +10863,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>127</v>
       </c>
@@ -10840,7 +10871,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>131</v>
       </c>
@@ -10848,7 +10879,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>135</v>
       </c>
@@ -10856,7 +10887,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>139</v>
       </c>
@@ -10864,7 +10895,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>144</v>
       </c>
@@ -10872,7 +10903,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>148</v>
       </c>
@@ -10880,7 +10911,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>152</v>
       </c>
@@ -10888,7 +10919,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>156</v>
       </c>
@@ -10896,7 +10927,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>156</v>
       </c>
@@ -10904,7 +10935,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>160</v>
       </c>
@@ -10912,7 +10943,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>164</v>
       </c>
@@ -10920,7 +10951,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>167</v>
       </c>
@@ -10928,7 +10959,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>167</v>
       </c>
@@ -10936,7 +10967,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>171</v>
       </c>
@@ -10944,7 +10975,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>176</v>
       </c>
@@ -10952,7 +10983,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>180</v>
       </c>
@@ -10960,7 +10991,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>184</v>
       </c>
@@ -10968,7 +10999,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>184</v>
       </c>
@@ -10976,7 +11007,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>184</v>
       </c>
@@ -10984,7 +11015,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>184</v>
       </c>
@@ -10992,7 +11023,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>188</v>
       </c>
@@ -11000,7 +11031,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>193</v>
       </c>
@@ -11008,7 +11039,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>197</v>
       </c>
@@ -11016,7 +11047,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>200</v>
       </c>
@@ -11024,7 +11055,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>204</v>
       </c>
@@ -11032,7 +11063,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>208</v>
       </c>
@@ -11040,42 +11071,42 @@
         <v>998</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>238</v>
       </c>
@@ -11089,11 +11120,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
@@ -11105,7 +11136,7 @@
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11131,7 +11162,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -11157,7 +11188,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -11183,7 +11214,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -11209,7 +11240,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -11235,7 +11266,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -11261,7 +11292,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -11287,7 +11318,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -11295,7 +11326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -11303,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -11329,7 +11360,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -11355,7 +11386,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -11381,7 +11412,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -11407,7 +11438,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -11433,7 +11464,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -11459,7 +11490,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -11467,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
@@ -11475,7 +11506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
@@ -11483,7 +11514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
@@ -11509,7 +11540,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
@@ -11535,7 +11566,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>87</v>
       </c>
@@ -11561,7 +11592,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
@@ -11587,7 +11618,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>95</v>
       </c>
@@ -11595,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>100</v>
       </c>
@@ -11621,7 +11652,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
@@ -11647,7 +11678,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>108</v>
       </c>
@@ -11673,7 +11704,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>112</v>
       </c>
@@ -11699,7 +11730,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>116</v>
       </c>
@@ -11725,7 +11756,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>119</v>
       </c>
@@ -11733,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>123</v>
       </c>
@@ -11759,7 +11790,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>127</v>
       </c>
@@ -11767,7 +11798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>131</v>
       </c>
@@ -11775,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>135</v>
       </c>
@@ -11801,7 +11832,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>139</v>
       </c>
@@ -11827,7 +11858,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>144</v>
       </c>
@@ -11853,7 +11884,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>148</v>
       </c>
@@ -11879,7 +11910,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>152</v>
       </c>
@@ -11905,7 +11936,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>156</v>
       </c>
@@ -11913,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>160</v>
       </c>
@@ -11939,12 +11970,12 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>167</v>
       </c>
@@ -11952,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>171</v>
       </c>
@@ -11960,7 +11991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>176</v>
       </c>
@@ -11986,7 +12017,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
@@ -12012,7 +12043,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>184</v>
       </c>
@@ -12020,7 +12051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>188</v>
       </c>
@@ -12028,7 +12059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>193</v>
       </c>
@@ -12054,7 +12085,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>197</v>
       </c>
@@ -12080,7 +12111,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>200</v>
       </c>
@@ -12106,7 +12137,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>204</v>
       </c>
@@ -12132,7 +12163,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -12158,222 +12189,222 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>382</v>
       </c>
@@ -12399,12 +12430,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>390</v>
       </c>
@@ -12430,7 +12461,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>394</v>
       </c>
@@ -12453,7 +12484,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>398</v>
       </c>
@@ -12461,34 +12492,2571 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C229"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22">
+        <v>89</v>
+      </c>
+      <c r="C22">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26">
+        <v>42</v>
+      </c>
+      <c r="C26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28">
+        <v>288</v>
+      </c>
+      <c r="C28">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30">
+        <v>93</v>
+      </c>
+      <c r="C30">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34">
+        <v>304</v>
+      </c>
+      <c r="C34">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35">
+        <v>94</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37">
+        <v>79</v>
+      </c>
+      <c r="C37">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38">
+        <v>329</v>
+      </c>
+      <c r="C38">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40">
+        <v>72</v>
+      </c>
+      <c r="C40">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42">
+        <v>110</v>
+      </c>
+      <c r="C42">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43">
+        <v>78</v>
+      </c>
+      <c r="C43">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48">
+        <v>241</v>
+      </c>
+      <c r="C48">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49">
+        <v>204</v>
+      </c>
+      <c r="C49">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50">
+        <v>243</v>
+      </c>
+      <c r="C50">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51">
+        <v>23</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53">
+        <v>220</v>
+      </c>
+      <c r="C53">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54">
+        <v>109</v>
+      </c>
+      <c r="C54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55">
+        <v>151</v>
+      </c>
+      <c r="C55">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57">
+        <v>64</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58">
+        <v>243</v>
+      </c>
+      <c r="C58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59">
+        <v>28</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60">
+        <v>31</v>
+      </c>
+      <c r="C60">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61">
+        <v>26</v>
+      </c>
+      <c r="C61">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62">
+        <v>76</v>
+      </c>
+      <c r="C62">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63">
+        <v>32</v>
+      </c>
+      <c r="C63">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B64">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65">
+        <v>78</v>
+      </c>
+      <c r="C65">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66">
+        <v>123</v>
+      </c>
+      <c r="C66">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67">
+        <v>85</v>
+      </c>
+      <c r="C67">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68">
+        <v>48</v>
+      </c>
+      <c r="C68">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B69">
+        <v>644</v>
+      </c>
+      <c r="C69">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B70">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B74">
+        <v>129</v>
+      </c>
+      <c r="C74">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B75">
+        <v>333</v>
+      </c>
+      <c r="C75">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B76">
+        <v>585</v>
+      </c>
+      <c r="C76">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B77">
+        <v>360</v>
+      </c>
+      <c r="C77">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B78">
+        <v>74</v>
+      </c>
+      <c r="C78">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B79">
+        <v>326</v>
+      </c>
+      <c r="C79">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B80">
+        <v>61</v>
+      </c>
+      <c r="C80">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B82">
+        <v>235</v>
+      </c>
+      <c r="C82">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B83">
+        <v>110</v>
+      </c>
+      <c r="C83">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B84">
+        <v>85</v>
+      </c>
+      <c r="C84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B85">
+        <v>4066</v>
+      </c>
+      <c r="C85">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B86">
+        <v>195</v>
+      </c>
+      <c r="C86">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B87">
+        <v>100</v>
+      </c>
+      <c r="C87">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B88">
+        <v>32</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B89">
+        <v>127</v>
+      </c>
+      <c r="C89">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B90">
+        <v>136</v>
+      </c>
+      <c r="C90">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B91">
+        <v>38</v>
+      </c>
+      <c r="C91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B92">
+        <v>13</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B93">
+        <v>157</v>
+      </c>
+      <c r="C93">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B95">
+        <v>20</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B96">
+        <v>148</v>
+      </c>
+      <c r="C96">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B97">
+        <v>83</v>
+      </c>
+      <c r="C97">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B99">
+        <v>179</v>
+      </c>
+      <c r="C99">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B100">
+        <v>291</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B101">
+        <v>136</v>
+      </c>
+      <c r="C101">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B102">
+        <v>20</v>
+      </c>
+      <c r="C102">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B105">
+        <v>98</v>
+      </c>
+      <c r="C105">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B106">
+        <v>115</v>
+      </c>
+      <c r="C106">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B107">
+        <v>534</v>
+      </c>
+      <c r="C107">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B108">
+        <v>36</v>
+      </c>
+      <c r="C108">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B109">
+        <v>60</v>
+      </c>
+      <c r="C109">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B110">
+        <v>421</v>
+      </c>
+      <c r="C110">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B111">
+        <v>518</v>
+      </c>
+      <c r="C111">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B112">
+        <v>175</v>
+      </c>
+      <c r="C112">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B113">
+        <v>203</v>
+      </c>
+      <c r="C113">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B114">
+        <v>353</v>
+      </c>
+      <c r="C114">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B115">
+        <v>99</v>
+      </c>
+      <c r="C115">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B116">
+        <v>82</v>
+      </c>
+      <c r="C116">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B117">
+        <v>134</v>
+      </c>
+      <c r="C117">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B118">
+        <v>143</v>
+      </c>
+      <c r="C118">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B119">
+        <v>69</v>
+      </c>
+      <c r="C119">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B120">
+        <v>72</v>
+      </c>
+      <c r="C120">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B121">
+        <v>171</v>
+      </c>
+      <c r="C121">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B122">
+        <v>717</v>
+      </c>
+      <c r="C122">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B123">
+        <v>682</v>
+      </c>
+      <c r="C123">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B124">
+        <v>78</v>
+      </c>
+      <c r="C124">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B125">
+        <v>62</v>
+      </c>
+      <c r="C125">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B126">
+        <v>5038</v>
+      </c>
+      <c r="C126">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B127">
+        <v>66</v>
+      </c>
+      <c r="C127">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B128">
+        <v>4950</v>
+      </c>
+      <c r="C128">
+        <v>4763</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B129">
+        <v>2711</v>
+      </c>
+      <c r="C129">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B130">
+        <v>20</v>
+      </c>
+      <c r="C130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B131">
+        <v>3107</v>
+      </c>
+      <c r="C131">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B132">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B133">
+        <v>40</v>
+      </c>
+      <c r="C133">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B134">
+        <v>80</v>
+      </c>
+      <c r="C134">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B135">
+        <v>562</v>
+      </c>
+      <c r="C135">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B138">
+        <v>49</v>
+      </c>
+      <c r="C138">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B141">
+        <v>248</v>
+      </c>
+      <c r="C141">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B142">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B143">
+        <v>45</v>
+      </c>
+      <c r="C143">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B144">
+        <v>118</v>
+      </c>
+      <c r="C144">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B145">
+        <v>124</v>
+      </c>
+      <c r="C145">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B146">
+        <v>31</v>
+      </c>
+      <c r="C146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B147">
+        <v>33</v>
+      </c>
+      <c r="C147">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B148">
+        <v>34</v>
+      </c>
+      <c r="C148">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B149">
+        <v>36</v>
+      </c>
+      <c r="C149">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B150">
+        <v>28</v>
+      </c>
+      <c r="C150">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B152">
+        <v>106</v>
+      </c>
+      <c r="C152">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B153">
+        <v>325</v>
+      </c>
+      <c r="C153">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B154">
+        <v>162</v>
+      </c>
+      <c r="C154">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B155">
+        <v>21</v>
+      </c>
+      <c r="C155">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B157">
+        <v>68</v>
+      </c>
+      <c r="C157">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B158">
+        <v>24</v>
+      </c>
+      <c r="C158">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B160">
+        <v>171</v>
+      </c>
+      <c r="C160">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B161">
+        <v>98</v>
+      </c>
+      <c r="C161">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B162">
+        <v>186</v>
+      </c>
+      <c r="C162">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B163">
+        <v>207</v>
+      </c>
+      <c r="C163">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B164">
+        <v>425</v>
+      </c>
+      <c r="C164">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B165">
+        <v>303</v>
+      </c>
+      <c r="C165">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B166">
+        <v>209</v>
+      </c>
+      <c r="C166">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B167">
+        <v>17</v>
+      </c>
+      <c r="C167">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B170">
+        <v>11</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B172">
+        <v>17</v>
+      </c>
+      <c r="C172">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B173">
+        <v>20</v>
+      </c>
+      <c r="C173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B174">
+        <v>56</v>
+      </c>
+      <c r="C174">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B176">
+        <v>22</v>
+      </c>
+      <c r="C176">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B179">
+        <v>7</v>
+      </c>
+      <c r="C179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B180">
+        <v>259</v>
+      </c>
+      <c r="C180">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B181">
+        <v>56</v>
+      </c>
+      <c r="C181">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B182">
+        <v>19</v>
+      </c>
+      <c r="C182">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B183">
+        <v>37</v>
+      </c>
+      <c r="C183">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B184">
+        <v>14</v>
+      </c>
+      <c r="C184">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B185">
+        <v>272</v>
+      </c>
+      <c r="C185">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B186">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B187">
+        <v>26</v>
+      </c>
+      <c r="C187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B188">
+        <v>48</v>
+      </c>
+      <c r="C188">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B189">
+        <v>26</v>
+      </c>
+      <c r="C189">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B190">
+        <v>86</v>
+      </c>
+      <c r="C190">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B191">
+        <v>32</v>
+      </c>
+      <c r="C191">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B192">
+        <v>19</v>
+      </c>
+      <c r="C192">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B193">
+        <v>62</v>
+      </c>
+      <c r="C193">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B194">
+        <v>30</v>
+      </c>
+      <c r="C194">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B195">
+        <v>11</v>
+      </c>
+      <c r="C195">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B196">
+        <v>35</v>
+      </c>
+      <c r="C196">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B197">
+        <v>41</v>
+      </c>
+      <c r="C197">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B199">
+        <v>24</v>
+      </c>
+      <c r="C199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B200">
+        <v>45</v>
+      </c>
+      <c r="C200">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B201">
+        <v>925</v>
+      </c>
+      <c r="C201">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B202">
+        <v>294</v>
+      </c>
+      <c r="C202">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B203">
+        <v>102</v>
+      </c>
+      <c r="C203">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B204">
+        <v>72</v>
+      </c>
+      <c r="C204">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B205">
+        <v>6</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B206">
+        <v>89</v>
+      </c>
+      <c r="C206">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B207">
+        <v>13</v>
+      </c>
+      <c r="C207">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B208">
+        <v>248</v>
+      </c>
+      <c r="C208">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B209">
+        <v>44</v>
+      </c>
+      <c r="C209">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B210">
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B212">
+        <v>364</v>
+      </c>
+      <c r="C212">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B213">
+        <v>60</v>
+      </c>
+      <c r="C213">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B214">
+        <v>33</v>
+      </c>
+      <c r="C214">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B215">
+        <v>62</v>
+      </c>
+      <c r="C215">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B216">
+        <v>17</v>
+      </c>
+      <c r="C216">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B218">
+        <v>25</v>
+      </c>
+      <c r="C218">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B219">
+        <v>13</v>
+      </c>
+      <c r="C219">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B220">
+        <v>6</v>
+      </c>
+      <c r="C220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B221">
+        <v>78</v>
+      </c>
+      <c r="C221">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B222">
+        <v>164</v>
+      </c>
+      <c r="C222">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B224">
+        <v>35</v>
+      </c>
+      <c r="C224">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B225">
+        <v>69</v>
+      </c>
+      <c r="C225">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B226">
+        <v>18</v>
+      </c>
+      <c r="C226">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B227">
+        <v>7</v>
+      </c>
+      <c r="C227">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B228">
+        <v>70</v>
+      </c>
+      <c r="C228">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B229">
+        <v>37</v>
+      </c>
+      <c r="C229">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>